--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>23858.52754354666</v>
+        <v>24263.95455602466</v>
       </c>
       <c r="AB2" t="n">
-        <v>32644.28994903162</v>
+        <v>33199.01307368149</v>
       </c>
       <c r="AC2" t="n">
-        <v>29528.76473284336</v>
+        <v>30030.54586103541</v>
       </c>
       <c r="AD2" t="n">
-        <v>23858527.54354667</v>
+        <v>24263954.55602466</v>
       </c>
       <c r="AE2" t="n">
-        <v>32644289.94903162</v>
+        <v>33199013.07368149</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.330541479948139e-07</v>
+        <v>4.801523131720551e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.26458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>29528764.73284336</v>
+        <v>30030545.86103541</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7906.019828852933</v>
+        <v>8121.598090684857</v>
       </c>
       <c r="AB3" t="n">
-        <v>10817.36511881576</v>
+        <v>11112.3288072959</v>
       </c>
       <c r="AC3" t="n">
-        <v>9784.970974142874</v>
+        <v>10051.78374217859</v>
       </c>
       <c r="AD3" t="n">
-        <v>7906019.828852933</v>
+        <v>8121598.090684857</v>
       </c>
       <c r="AE3" t="n">
-        <v>10817365.11881576</v>
+        <v>11112328.8072959</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.286159981207416e-07</v>
+        <v>9.062533146992491e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.35</v>
       </c>
       <c r="AH3" t="n">
-        <v>9784970.974142874</v>
+        <v>10051783.74217859</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6050.399657601746</v>
+        <v>6231.529789106306</v>
       </c>
       <c r="AB4" t="n">
-        <v>8278.423736325469</v>
+        <v>8526.253973147455</v>
       </c>
       <c r="AC4" t="n">
-        <v>7488.342593770939</v>
+        <v>7712.520260622551</v>
       </c>
       <c r="AD4" t="n">
-        <v>6050399.657601746</v>
+        <v>6231529.789106307</v>
       </c>
       <c r="AE4" t="n">
-        <v>8278423.736325468</v>
+        <v>8526253.973147456</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.377375498947763e-07</v>
+        <v>1.063569972716199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>7488342.593770939</v>
+        <v>7712520.260622551</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5322.865977490779</v>
+        <v>5486.814714258945</v>
       </c>
       <c r="AB5" t="n">
-        <v>7282.980058676879</v>
+        <v>7507.30195323089</v>
       </c>
       <c r="AC5" t="n">
-        <v>6587.902663603194</v>
+        <v>6790.815591378719</v>
       </c>
       <c r="AD5" t="n">
-        <v>5322865.977490779</v>
+        <v>5486814.714258945</v>
       </c>
       <c r="AE5" t="n">
-        <v>7282980.058676879</v>
+        <v>7507301.95323089</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.953618987594068e-07</v>
+        <v>1.146644945866861e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.21041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>6587902.663603194</v>
+        <v>6790815.591378719</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4912.751959964461</v>
+        <v>5076.700607224075</v>
       </c>
       <c r="AB6" t="n">
-        <v>6721.843966943821</v>
+        <v>6946.165739028283</v>
       </c>
       <c r="AC6" t="n">
-        <v>6080.32061290571</v>
+        <v>6283.233429900007</v>
       </c>
       <c r="AD6" t="n">
-        <v>4912751.959964461</v>
+        <v>5076700.607224075</v>
       </c>
       <c r="AE6" t="n">
-        <v>6721843.966943821</v>
+        <v>6946165.739028283</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.316871212082498e-07</v>
+        <v>1.199013726409937e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.54375</v>
       </c>
       <c r="AH6" t="n">
-        <v>6080320.61290571</v>
+        <v>6283233.429900006</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4646.223947972118</v>
+        <v>4801.453976090229</v>
       </c>
       <c r="AB7" t="n">
-        <v>6357.168582549853</v>
+        <v>6569.561155286579</v>
       </c>
       <c r="AC7" t="n">
-        <v>5750.4493353732</v>
+        <v>5942.571459062772</v>
       </c>
       <c r="AD7" t="n">
-        <v>4646223.947972118</v>
+        <v>4801453.976090229</v>
       </c>
       <c r="AE7" t="n">
-        <v>6357168.582549852</v>
+        <v>6569561.155286579</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.563415894566612e-07</v>
+        <v>1.234557195935157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.49166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5750449.3353732</v>
+        <v>5942571.459062772</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4443.650057570449</v>
+        <v>4598.965337034581</v>
       </c>
       <c r="AB8" t="n">
-        <v>6079.998048772968</v>
+        <v>6292.507266162343</v>
       </c>
       <c r="AC8" t="n">
-        <v>5499.731568328702</v>
+        <v>5691.959204268986</v>
       </c>
       <c r="AD8" t="n">
-        <v>4443650.057570449</v>
+        <v>4598965.337034581</v>
       </c>
       <c r="AE8" t="n">
-        <v>6079998.048772968</v>
+        <v>6292507.266162342</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.747230273223409e-07</v>
+        <v>1.26105706078828e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.74166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5499731.568328703</v>
+        <v>5691959.204268986</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4295.421099493612</v>
+        <v>4442.103100670812</v>
       </c>
       <c r="AB9" t="n">
-        <v>5877.184648932125</v>
+        <v>6077.88143409596</v>
       </c>
       <c r="AC9" t="n">
-        <v>5316.274394718283</v>
+        <v>5497.81696038578</v>
       </c>
       <c r="AD9" t="n">
-        <v>4295421.099493612</v>
+        <v>4442103.100670812</v>
       </c>
       <c r="AE9" t="n">
-        <v>5877184.648932125</v>
+        <v>6077881.43409596</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.884361635078479e-07</v>
+        <v>1.28082680123426e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>35</v>
+        <v>34.21041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>5316274.394718283</v>
+        <v>5497816.960385781</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4165.457360688853</v>
+        <v>4320.687299298413</v>
       </c>
       <c r="AB10" t="n">
-        <v>5699.362527903944</v>
+        <v>5911.754978171121</v>
       </c>
       <c r="AC10" t="n">
-        <v>5155.423367346123</v>
+        <v>5347.545380254471</v>
       </c>
       <c r="AD10" t="n">
-        <v>4165457.360688854</v>
+        <v>4320687.299298413</v>
       </c>
       <c r="AE10" t="n">
-        <v>5699362.527903944</v>
+        <v>5911754.978171121</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.989398422882362e-07</v>
+        <v>1.29596958115033e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.80625</v>
       </c>
       <c r="AH10" t="n">
-        <v>5155423.367346123</v>
+        <v>5347545.380254471</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4049.010591953401</v>
+        <v>4195.607252276029</v>
       </c>
       <c r="AB11" t="n">
-        <v>5540.034921651222</v>
+        <v>5740.61493969286</v>
       </c>
       <c r="AC11" t="n">
-        <v>5011.30176421647</v>
+        <v>5192.738706852029</v>
       </c>
       <c r="AD11" t="n">
-        <v>4049010.591953401</v>
+        <v>4195607.252276029</v>
       </c>
       <c r="AE11" t="n">
-        <v>5540034.921651222</v>
+        <v>5740614.93969286</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.082764456485815e-07</v>
+        <v>1.309429829964615e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.46458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>5011301.76421647</v>
+        <v>5192738.706852029</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3958.265743567913</v>
+        <v>4104.86240389054</v>
       </c>
       <c r="AB12" t="n">
-        <v>5415.873816710023</v>
+        <v>5616.453834751662</v>
       </c>
       <c r="AC12" t="n">
-        <v>4898.990420869656</v>
+        <v>5080.427363505217</v>
       </c>
       <c r="AD12" t="n">
-        <v>3958265.743567912</v>
+        <v>4104862.40389054</v>
       </c>
       <c r="AE12" t="n">
-        <v>5415873.816710023</v>
+        <v>5616453.834751662</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.146953604588188e-07</v>
+        <v>1.318683751024435e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.225</v>
       </c>
       <c r="AH12" t="n">
-        <v>4898990.420869656</v>
+        <v>5080427.363505217</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3847.262352012222</v>
+        <v>3993.944263680869</v>
       </c>
       <c r="AB13" t="n">
-        <v>5263.994079259503</v>
+        <v>5464.690741953791</v>
       </c>
       <c r="AC13" t="n">
-        <v>4761.605872396869</v>
+        <v>4943.148327283142</v>
       </c>
       <c r="AD13" t="n">
-        <v>3847262.352012222</v>
+        <v>3993944.263680868</v>
       </c>
       <c r="AE13" t="n">
-        <v>5263994.079259504</v>
+        <v>5464690.741953791</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.215519285515723e-07</v>
+        <v>1.328568621247425e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.97916666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>4761605.872396869</v>
+        <v>4943148.327283142</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3761.134024860351</v>
+        <v>3907.815936529</v>
       </c>
       <c r="AB14" t="n">
-        <v>5146.149502336686</v>
+        <v>5346.846165030973</v>
       </c>
       <c r="AC14" t="n">
-        <v>4655.008216499668</v>
+        <v>4836.55067138594</v>
       </c>
       <c r="AD14" t="n">
-        <v>3761134.024860351</v>
+        <v>3907815.936529</v>
       </c>
       <c r="AE14" t="n">
-        <v>5146149.502336686</v>
+        <v>5346846.165030973</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.268037679417665e-07</v>
+        <v>1.33614001120546e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.79166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>4655008.216499669</v>
+        <v>4836550.67138594</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3692.108780991291</v>
+        <v>3838.790692659938</v>
       </c>
       <c r="AB15" t="n">
-        <v>5051.70611849619</v>
+        <v>5252.402781190477</v>
       </c>
       <c r="AC15" t="n">
-        <v>4569.57837666079</v>
+        <v>4751.120831547062</v>
       </c>
       <c r="AD15" t="n">
-        <v>3692108.780991291</v>
+        <v>3838790.692659938</v>
       </c>
       <c r="AE15" t="n">
-        <v>5051706.118496191</v>
+        <v>5252402.781190477</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.304508786294013e-07</v>
+        <v>1.34139792089854e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>33</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>4569578.37666079</v>
+        <v>4751120.831547062</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3664.000057736077</v>
+        <v>3810.681969404724</v>
       </c>
       <c r="AB16" t="n">
-        <v>5013.246523269054</v>
+        <v>5213.943185963341</v>
       </c>
       <c r="AC16" t="n">
-        <v>4534.789311223753</v>
+        <v>4716.331766110024</v>
       </c>
       <c r="AD16" t="n">
-        <v>3664000.057736076</v>
+        <v>3810681.969404724</v>
       </c>
       <c r="AE16" t="n">
-        <v>5013246.523269054</v>
+        <v>5213943.185963341</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.32201491759466e-07</v>
+        <v>1.343921717551219e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>33</v>
+        <v>32.60208333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>4534789.311223753</v>
+        <v>4716331.766110023</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3662.386452473872</v>
+        <v>3809.068364142521</v>
       </c>
       <c r="AB17" t="n">
-        <v>5011.038717362066</v>
+        <v>5211.735380056353</v>
       </c>
       <c r="AC17" t="n">
-        <v>4532.792215213852</v>
+        <v>4714.334670100125</v>
       </c>
       <c r="AD17" t="n">
-        <v>3662386.452473872</v>
+        <v>3809068.364142521</v>
       </c>
       <c r="AE17" t="n">
-        <v>5011038.717362066</v>
+        <v>5211735.380056353</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.327850294694876e-07</v>
+        <v>1.344762983102111e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>33</v>
+        <v>32.58333333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>4532792.215213852</v>
+        <v>4714334.670100125</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>3678.625396411737</v>
+        <v>3825.307308080386</v>
       </c>
       <c r="AB18" t="n">
-        <v>5033.257556869498</v>
+        <v>5233.954219563786</v>
       </c>
       <c r="AC18" t="n">
-        <v>4552.890519863032</v>
+        <v>4734.432974749305</v>
       </c>
       <c r="AD18" t="n">
-        <v>3678625.396411737</v>
+        <v>3825307.308080385</v>
       </c>
       <c r="AE18" t="n">
-        <v>5033257.556869498</v>
+        <v>5233954.219563786</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.327850294694876e-07</v>
+        <v>1.344762983102111e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>33</v>
+        <v>32.58333333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>4552890.519863032</v>
+        <v>4734432.974749304</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>14320.64043098167</v>
+        <v>14631.91442080764</v>
       </c>
       <c r="AB2" t="n">
-        <v>19594.13201973711</v>
+        <v>20020.03082505627</v>
       </c>
       <c r="AC2" t="n">
-        <v>17724.09556030967</v>
+        <v>18109.34718140188</v>
       </c>
       <c r="AD2" t="n">
-        <v>14320640.43098167</v>
+        <v>14631914.42080764</v>
       </c>
       <c r="AE2" t="n">
-        <v>19594132.01973711</v>
+        <v>20020030.82505627</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.382583193081255e-07</v>
+        <v>6.415936926480395e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.74583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>17724095.56030967</v>
+        <v>18109347.18140188</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6186.528822856938</v>
+        <v>6379.873631566843</v>
       </c>
       <c r="AB3" t="n">
-        <v>8464.681665822549</v>
+        <v>8729.224562870419</v>
       </c>
       <c r="AC3" t="n">
-        <v>7656.824327891458</v>
+        <v>7896.119622133357</v>
       </c>
       <c r="AD3" t="n">
-        <v>6186528.822856938</v>
+        <v>6379873.631566843</v>
       </c>
       <c r="AE3" t="n">
-        <v>8464681.665822549</v>
+        <v>8729224.562870419</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.097551224883314e-07</v>
+        <v>1.039054799078419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.29375000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>7656824.327891458</v>
+        <v>7896119.622133357</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4934.479646700343</v>
+        <v>5102.74277694583</v>
       </c>
       <c r="AB4" t="n">
-        <v>6751.572746493743</v>
+        <v>6981.797784541034</v>
       </c>
       <c r="AC4" t="n">
-        <v>6107.212119459989</v>
+        <v>6315.464802998909</v>
       </c>
       <c r="AD4" t="n">
-        <v>4934479.646700342</v>
+        <v>5102742.77694583</v>
       </c>
       <c r="AE4" t="n">
-        <v>6751572.746493743</v>
+        <v>6981797.784541034</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.081519627737646e-07</v>
+        <v>1.183104071670197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.90416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>6107212.119459989</v>
+        <v>6315464.80299891</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4406.113558917355</v>
+        <v>4565.959265607841</v>
       </c>
       <c r="AB5" t="n">
-        <v>6028.638955322356</v>
+        <v>6247.346903111174</v>
       </c>
       <c r="AC5" t="n">
-        <v>5453.274114674078</v>
+        <v>5651.108882884454</v>
       </c>
       <c r="AD5" t="n">
-        <v>4406113.558917356</v>
+        <v>4565959.265607841</v>
       </c>
       <c r="AE5" t="n">
-        <v>6028638.955322356</v>
+        <v>6247346.903111174</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.59614113904643e-07</v>
+        <v>1.258442724973565e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.57291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>5453274.114674078</v>
+        <v>5651108.882884454</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4094.772525213364</v>
+        <v>4246.115557002827</v>
       </c>
       <c r="AB6" t="n">
-        <v>5602.648417611518</v>
+        <v>5809.722630489212</v>
       </c>
       <c r="AC6" t="n">
-        <v>5067.939516000904</v>
+        <v>5255.250856632026</v>
       </c>
       <c r="AD6" t="n">
-        <v>4094772.525213364</v>
+        <v>4246115.557002827</v>
       </c>
       <c r="AE6" t="n">
-        <v>5602648.417611518</v>
+        <v>5809722.630489212</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.916081785373298e-07</v>
+        <v>1.305280832012609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.2625</v>
       </c>
       <c r="AH6" t="n">
-        <v>5067939.516000904</v>
+        <v>5255250.856632026</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3874.650250332225</v>
+        <v>4025.907941267116</v>
       </c>
       <c r="AB7" t="n">
-        <v>5301.467410009734</v>
+        <v>5508.42485576523</v>
       </c>
       <c r="AC7" t="n">
-        <v>4795.502801054447</v>
+        <v>4982.708518653629</v>
       </c>
       <c r="AD7" t="n">
-        <v>3874650.250332225</v>
+        <v>4025907.941267116</v>
       </c>
       <c r="AE7" t="n">
-        <v>5301467.410009733</v>
+        <v>5508424.85576523</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.134909114228939e-07</v>
+        <v>1.337316329751578e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.41875</v>
       </c>
       <c r="AH7" t="n">
-        <v>4795502.801054447</v>
+        <v>4982708.518653628</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3700.486957303553</v>
+        <v>3851.829899584464</v>
       </c>
       <c r="AB8" t="n">
-        <v>5063.16950894568</v>
+        <v>5270.243599353824</v>
       </c>
       <c r="AC8" t="n">
-        <v>4579.94771721475</v>
+        <v>4767.258947064645</v>
       </c>
       <c r="AD8" t="n">
-        <v>3700486.957303552</v>
+        <v>3851829.899584464</v>
       </c>
       <c r="AE8" t="n">
-        <v>5063169.50894568</v>
+        <v>5270243.599353824</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.294879437392374e-07</v>
+        <v>1.3607353832711e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.82708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4579947.71721475</v>
+        <v>4767258.947064646</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3560.119708037395</v>
+        <v>3703.045316271855</v>
       </c>
       <c r="AB9" t="n">
-        <v>4871.112845933724</v>
+        <v>5066.669968552943</v>
       </c>
       <c r="AC9" t="n">
-        <v>4406.220672567444</v>
+        <v>4583.114097870022</v>
       </c>
       <c r="AD9" t="n">
-        <v>3560119.708037395</v>
+        <v>3703045.316271855</v>
       </c>
       <c r="AE9" t="n">
-        <v>4871112.845933724</v>
+        <v>5066669.968552943</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.417120910753111e-07</v>
+        <v>1.37863107511149e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.3875</v>
       </c>
       <c r="AH9" t="n">
-        <v>4406220.672567444</v>
+        <v>4583114.097870022</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3434.463224612676</v>
+        <v>3577.388832847136</v>
       </c>
       <c r="AB10" t="n">
-        <v>4699.184101739212</v>
+        <v>4894.74122435843</v>
       </c>
       <c r="AC10" t="n">
-        <v>4250.700566415353</v>
+        <v>4427.593991717931</v>
       </c>
       <c r="AD10" t="n">
-        <v>3434463.224612676</v>
+        <v>3577388.832847136</v>
       </c>
       <c r="AE10" t="n">
-        <v>4699184.101739212</v>
+        <v>4894741.22435843</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.509179304271691e-07</v>
+        <v>1.392108077608573e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.06458333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>4250700.566415353</v>
+        <v>4427593.991717931</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3326.142064569161</v>
+        <v>3469.152924149642</v>
       </c>
       <c r="AB11" t="n">
-        <v>4550.974311775354</v>
+        <v>4746.648079047222</v>
       </c>
       <c r="AC11" t="n">
-        <v>4116.635710791906</v>
+        <v>4293.634648345196</v>
       </c>
       <c r="AD11" t="n">
-        <v>3326142.064569161</v>
+        <v>3469152.924149642</v>
       </c>
       <c r="AE11" t="n">
-        <v>4550974.311775354</v>
+        <v>4746648.079047223</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.578600387908654e-07</v>
+        <v>1.402271063098177e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.82291666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>4116635.710791905</v>
+        <v>4293634.648345197</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3309.858976337202</v>
+        <v>3452.869835917682</v>
       </c>
       <c r="AB12" t="n">
-        <v>4528.695072097232</v>
+        <v>4724.3688393691</v>
       </c>
       <c r="AC12" t="n">
-        <v>4096.482770479555</v>
+        <v>4273.481708032846</v>
       </c>
       <c r="AD12" t="n">
-        <v>3309858.976337202</v>
+        <v>3452869.835917682</v>
       </c>
       <c r="AE12" t="n">
-        <v>4528695.072097232</v>
+        <v>4724368.8393691</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.593691927829732e-07</v>
+        <v>1.40448040776983e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.77291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>4096482.770479556</v>
+        <v>4273481.708032846</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3322.376471930798</v>
+        <v>3465.387331511278</v>
       </c>
       <c r="AB13" t="n">
-        <v>4545.822061801322</v>
+        <v>4741.49582907319</v>
       </c>
       <c r="AC13" t="n">
-        <v>4111.975184324167</v>
+        <v>4288.974121877458</v>
       </c>
       <c r="AD13" t="n">
-        <v>3322376.471930798</v>
+        <v>3465387.331511278</v>
       </c>
       <c r="AE13" t="n">
-        <v>4545822.061801322</v>
+        <v>4741495.82907319</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.590673619845516e-07</v>
+        <v>1.4040385388355e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.77916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>4111975.184324167</v>
+        <v>4288974.121877458</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4588.038461914928</v>
+        <v>4774.282709827541</v>
       </c>
       <c r="AB2" t="n">
-        <v>6277.556633563923</v>
+        <v>6532.384230074302</v>
       </c>
       <c r="AC2" t="n">
-        <v>5678.435439062418</v>
+        <v>5908.942647414614</v>
       </c>
       <c r="AD2" t="n">
-        <v>4588038.461914928</v>
+        <v>4774282.709827541</v>
       </c>
       <c r="AE2" t="n">
-        <v>6277556.633563924</v>
+        <v>6532384.230074301</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.677337787611568e-07</v>
+        <v>1.187778919361824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.69791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5678435.439062417</v>
+        <v>5908942.647414614</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2969.653147463834</v>
+        <v>3117.146292559819</v>
       </c>
       <c r="AB3" t="n">
-        <v>4063.210448210763</v>
+        <v>4265.017076269427</v>
       </c>
       <c r="AC3" t="n">
-        <v>3675.423345785056</v>
+        <v>3857.969832499174</v>
       </c>
       <c r="AD3" t="n">
-        <v>2969653.147463834</v>
+        <v>3117146.292559819</v>
       </c>
       <c r="AE3" t="n">
-        <v>4063210.448210763</v>
+        <v>4265017.076269427</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.607197209546829e-07</v>
+        <v>1.486351992752623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.51666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3675423.345785055</v>
+        <v>3857969.832499174</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2527.510931253525</v>
+        <v>2659.469588389582</v>
       </c>
       <c r="AB4" t="n">
-        <v>3458.251962053865</v>
+        <v>3638.803618352514</v>
       </c>
       <c r="AC4" t="n">
-        <v>3128.201248482427</v>
+        <v>3291.521308109766</v>
       </c>
       <c r="AD4" t="n">
-        <v>2527510.931253525</v>
+        <v>2659469.588389582</v>
       </c>
       <c r="AE4" t="n">
-        <v>3458251.962053865</v>
+        <v>3638803.618352514</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.023701171548382e-06</v>
+        <v>1.583792070805117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.27291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3128201.248482427</v>
+        <v>3291521.308109766</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2505.721343408667</v>
+        <v>2637.680000544724</v>
       </c>
       <c r="AB5" t="n">
-        <v>3428.438486675757</v>
+        <v>3608.990142974405</v>
       </c>
       <c r="AC5" t="n">
-        <v>3101.233129350931</v>
+        <v>3264.553188978271</v>
       </c>
       <c r="AD5" t="n">
-        <v>2505721.343408667</v>
+        <v>2637680.000544724</v>
       </c>
       <c r="AE5" t="n">
-        <v>3428438.486675757</v>
+        <v>3608990.142974406</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.029089958764955e-06</v>
+        <v>1.592129189782871e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.08958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3101233.129350931</v>
+        <v>3264553.188978271</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6934.107791448049</v>
+        <v>7158.452803213182</v>
       </c>
       <c r="AB2" t="n">
-        <v>9487.552191505391</v>
+        <v>9794.510934005859</v>
       </c>
       <c r="AC2" t="n">
-        <v>8582.07352621089</v>
+        <v>8859.736557146402</v>
       </c>
       <c r="AD2" t="n">
-        <v>6934107.791448049</v>
+        <v>7158452.803213182</v>
       </c>
       <c r="AE2" t="n">
-        <v>9487552.191505391</v>
+        <v>9794510.934005858</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.350662682438717e-07</v>
+        <v>9.597718207563e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>8582073.526210889</v>
+        <v>8859736.557146402</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4009.036044974286</v>
+        <v>4169.294763008586</v>
       </c>
       <c r="AB3" t="n">
-        <v>5485.339982921847</v>
+        <v>5704.613031052046</v>
       </c>
       <c r="AC3" t="n">
-        <v>4961.826833674599</v>
+        <v>5160.172769842897</v>
       </c>
       <c r="AD3" t="n">
-        <v>4009036.044974286</v>
+        <v>4169294.763008586</v>
       </c>
       <c r="AE3" t="n">
-        <v>5485339.982921847</v>
+        <v>5704613.031052046</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.604487414232672e-07</v>
+        <v>1.300390993064282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.00833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4961826.833674598</v>
+        <v>5160172.769842897</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3358.370690508485</v>
+        <v>3510.607853522488</v>
       </c>
       <c r="AB4" t="n">
-        <v>4595.070939612167</v>
+        <v>4803.368542277564</v>
       </c>
       <c r="AC4" t="n">
-        <v>4156.523818357978</v>
+        <v>4344.941790172503</v>
       </c>
       <c r="AD4" t="n">
-        <v>3358370.690508484</v>
+        <v>3510607.853522488</v>
       </c>
       <c r="AE4" t="n">
-        <v>4595070.939612167</v>
+        <v>4803368.542277564</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.387445827136074e-07</v>
+        <v>1.418719025760264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.75416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4156523.818357978</v>
+        <v>4344941.790172502</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3021.609540967191</v>
+        <v>3157.889203320828</v>
       </c>
       <c r="AB5" t="n">
-        <v>4134.29947795637</v>
+        <v>4320.763324223009</v>
       </c>
       <c r="AC5" t="n">
-        <v>3739.727738305818</v>
+        <v>3908.395736788414</v>
       </c>
       <c r="AD5" t="n">
-        <v>3021609.540967191</v>
+        <v>3157889.203320828</v>
       </c>
       <c r="AE5" t="n">
-        <v>4134299.47795637</v>
+        <v>4320763.324223009</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.799868365620172e-07</v>
+        <v>1.481048195246213e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.24583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3739727.738305818</v>
+        <v>3908395.736788413</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2806.868582845888</v>
+        <v>2943.062904344953</v>
       </c>
       <c r="AB6" t="n">
-        <v>3840.481425352335</v>
+        <v>4026.828504496775</v>
       </c>
       <c r="AC6" t="n">
-        <v>3473.951268266097</v>
+        <v>3642.513643716753</v>
       </c>
       <c r="AD6" t="n">
-        <v>2806868.582845888</v>
+        <v>2943062.904344954</v>
       </c>
       <c r="AE6" t="n">
-        <v>3840481.425352335</v>
+        <v>4026828.504496775</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.002541194135366e-06</v>
+        <v>1.515134459808842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.47916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>3473951.268266097</v>
+        <v>3642513.643716753</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2782.539327964166</v>
+        <v>2918.733649463232</v>
       </c>
       <c r="AB7" t="n">
-        <v>3807.193065492187</v>
+        <v>3993.540144636628</v>
       </c>
       <c r="AC7" t="n">
-        <v>3443.839902750496</v>
+        <v>3612.402278201153</v>
       </c>
       <c r="AD7" t="n">
-        <v>2782539.327964166</v>
+        <v>2918733.649463232</v>
       </c>
       <c r="AE7" t="n">
-        <v>3807193.065492187</v>
+        <v>3993540.144636628</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.006085450325464e-06</v>
+        <v>1.520490872811541e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.35833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3443839.902750496</v>
+        <v>3612402.278201153</v>
       </c>
     </row>
     <row r="8">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2799.591088610803</v>
+        <v>2935.785410109869</v>
       </c>
       <c r="AB8" t="n">
-        <v>3830.524036679505</v>
+        <v>4016.871115823944</v>
       </c>
       <c r="AC8" t="n">
-        <v>3464.944198792918</v>
+        <v>3633.506574243575</v>
       </c>
       <c r="AD8" t="n">
-        <v>2799591.088610803</v>
+        <v>2935785.410109869</v>
       </c>
       <c r="AE8" t="n">
-        <v>3830524.036679504</v>
+        <v>4016871.115823945</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.006085450325464e-06</v>
+        <v>1.520490872811541e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.35833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3464944.198792918</v>
+        <v>3633506.574243574</v>
       </c>
     </row>
   </sheetData>
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3247.440482241488</v>
+        <v>3406.00493442086</v>
       </c>
       <c r="AB2" t="n">
-        <v>4443.291334765859</v>
+        <v>4660.24621360761</v>
       </c>
       <c r="AC2" t="n">
-        <v>4019.229845974192</v>
+        <v>4215.478855677365</v>
       </c>
       <c r="AD2" t="n">
-        <v>3247440.482241488</v>
+        <v>3406004.93442086</v>
       </c>
       <c r="AE2" t="n">
-        <v>4443291.334765859</v>
+        <v>4660246.21360761</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.832306312210461e-07</v>
+        <v>1.395935405347517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.25625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4019229.845974192</v>
+        <v>4215478.855677364</v>
       </c>
     </row>
     <row r="3">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2295.776141611734</v>
+        <v>2431.664158879682</v>
       </c>
       <c r="AB3" t="n">
-        <v>3141.18219944856</v>
+        <v>3327.110179630798</v>
       </c>
       <c r="AC3" t="n">
-        <v>2841.392179009978</v>
+        <v>3009.575453715174</v>
       </c>
       <c r="AD3" t="n">
-        <v>2295776.141611733</v>
+        <v>2431664.158879681</v>
       </c>
       <c r="AE3" t="n">
-        <v>3141182.19944856</v>
+        <v>3327110.179630798</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.035566052962339e-06</v>
+        <v>1.636699709913395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.18333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2841392.179009978</v>
+        <v>3009575.453715174</v>
       </c>
     </row>
     <row r="4">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2297.606010682633</v>
+        <v>2433.494027950582</v>
       </c>
       <c r="AB4" t="n">
-        <v>3143.685907039493</v>
+        <v>3329.61388722173</v>
       </c>
       <c r="AC4" t="n">
-        <v>2843.656936262406</v>
+        <v>3011.840210967603</v>
       </c>
       <c r="AD4" t="n">
-        <v>2297606.010682633</v>
+        <v>2433494.027950582</v>
       </c>
       <c r="AE4" t="n">
-        <v>3143685.907039493</v>
+        <v>3329613.88722173</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.038889098901587e-06</v>
+        <v>1.641951744111733e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>2843656.936262406</v>
+        <v>3011840.210967603</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>16172.52281252637</v>
+        <v>16502.8452542624</v>
       </c>
       <c r="AB2" t="n">
-        <v>22127.95919345135</v>
+        <v>22579.92093103225</v>
       </c>
       <c r="AC2" t="n">
-        <v>20016.0978248133</v>
+        <v>20424.92496849174</v>
       </c>
       <c r="AD2" t="n">
-        <v>16172522.81252638</v>
+        <v>16502845.2542624</v>
       </c>
       <c r="AE2" t="n">
-        <v>22127959.19345135</v>
+        <v>22579920.93103225</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.106910378233996e-07</v>
+        <v>5.98740833020329e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.87708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>20016097.8248133</v>
+        <v>20424924.96849174</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6588.816876487469</v>
+        <v>6783.552485293005</v>
       </c>
       <c r="AB3" t="n">
-        <v>9015.109928496233</v>
+        <v>9281.555779592707</v>
       </c>
       <c r="AC3" t="n">
-        <v>8154.720489706461</v>
+        <v>8395.737122733384</v>
       </c>
       <c r="AD3" t="n">
-        <v>6588816.876487469</v>
+        <v>6783552.485293005</v>
       </c>
       <c r="AE3" t="n">
-        <v>9015109.928496232</v>
+        <v>9281555.779592708</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.885730291838789e-07</v>
+        <v>1.003861178159357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.25208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>8154720.489706461</v>
+        <v>8395737.122733384</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5206.033177384325</v>
+        <v>5375.346238232539</v>
       </c>
       <c r="AB4" t="n">
-        <v>7123.124267271851</v>
+        <v>7354.78586668946</v>
       </c>
       <c r="AC4" t="n">
-        <v>6443.303284570856</v>
+        <v>6652.855426079137</v>
       </c>
       <c r="AD4" t="n">
-        <v>5206033.177384324</v>
+        <v>5375346.238232539</v>
       </c>
       <c r="AE4" t="n">
-        <v>7123124.267271851</v>
+        <v>7354785.86668946</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.896754114011471e-07</v>
+        <v>1.151256954969897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.45416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>6443303.284570856</v>
+        <v>6652855.426079137</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4627.199914046611</v>
+        <v>4796.427544531703</v>
       </c>
       <c r="AB5" t="n">
-        <v>6331.13906005183</v>
+        <v>6562.683769877694</v>
       </c>
       <c r="AC5" t="n">
-        <v>5726.904033969722</v>
+        <v>5936.350441664839</v>
       </c>
       <c r="AD5" t="n">
-        <v>4627199.914046611</v>
+        <v>4796427.544531703</v>
       </c>
       <c r="AE5" t="n">
-        <v>6331139.06005183</v>
+        <v>6562683.769877694</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.427691180389135e-07</v>
+        <v>1.228661541904426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.975</v>
       </c>
       <c r="AH5" t="n">
-        <v>5726904.033969722</v>
+        <v>5936350.441664839</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4297.463454348503</v>
+        <v>4449.998742092428</v>
       </c>
       <c r="AB6" t="n">
-        <v>5879.979088946921</v>
+        <v>6088.684599020134</v>
       </c>
       <c r="AC6" t="n">
-        <v>5318.802137300089</v>
+        <v>5507.589086411927</v>
       </c>
       <c r="AD6" t="n">
-        <v>4297463.454348503</v>
+        <v>4449998.742092428</v>
       </c>
       <c r="AE6" t="n">
-        <v>5879979.088946922</v>
+        <v>6088684.599020134</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.758218199176358e-07</v>
+        <v>1.276848622784795e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.575</v>
       </c>
       <c r="AH6" t="n">
-        <v>5318802.137300089</v>
+        <v>5507589.086411928</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4069.090714020804</v>
+        <v>4221.540660910157</v>
       </c>
       <c r="AB7" t="n">
-        <v>5567.509430536308</v>
+        <v>5776.09817348732</v>
       </c>
       <c r="AC7" t="n">
-        <v>5036.154144534275</v>
+        <v>5224.835470614175</v>
       </c>
       <c r="AD7" t="n">
-        <v>4069090.714020804</v>
+        <v>4221540.660910157</v>
       </c>
       <c r="AE7" t="n">
-        <v>5567509.430536308</v>
+        <v>5776098.173487321</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.982557804688048e-07</v>
+        <v>1.309554786278258e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.68541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5036154.144534275</v>
+        <v>5224835.470614175</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3899.263678604441</v>
+        <v>4043.239532349906</v>
       </c>
       <c r="AB8" t="n">
-        <v>5335.144588439603</v>
+        <v>5532.13870330054</v>
       </c>
       <c r="AC8" t="n">
-        <v>4825.965876841184</v>
+        <v>5004.159149862763</v>
       </c>
       <c r="AD8" t="n">
-        <v>3899263.678604441</v>
+        <v>4043239.532349906</v>
       </c>
       <c r="AE8" t="n">
-        <v>5335144.588439602</v>
+        <v>5532138.70330054</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.14707351539662e-07</v>
+        <v>1.333539306173464e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.06666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4825965.876841184</v>
+        <v>5004159.149862763</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3747.786819698158</v>
+        <v>3891.847924789644</v>
       </c>
       <c r="AB9" t="n">
-        <v>5127.887267396637</v>
+        <v>5324.998026910227</v>
       </c>
       <c r="AC9" t="n">
-        <v>4638.488903631091</v>
+        <v>4816.787688903384</v>
       </c>
       <c r="AD9" t="n">
-        <v>3747786.819698158</v>
+        <v>3891847.924789644</v>
       </c>
       <c r="AE9" t="n">
-        <v>5127887.267396637</v>
+        <v>5324998.026910227</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.272703694483166e-07</v>
+        <v>1.351854757729803e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.60208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4638488.903631091</v>
+        <v>4816787.688903384</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3617.868986027694</v>
+        <v>3761.759498918587</v>
       </c>
       <c r="AB10" t="n">
-        <v>4950.127955798392</v>
+        <v>5147.005303537132</v>
       </c>
       <c r="AC10" t="n">
-        <v>4477.694691245026</v>
+        <v>4655.782341234667</v>
       </c>
       <c r="AD10" t="n">
-        <v>3617868.986027694</v>
+        <v>3761759.498918587</v>
       </c>
       <c r="AE10" t="n">
-        <v>4950127.955798391</v>
+        <v>5147005.303537132</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.375899913018543e-07</v>
+        <v>1.366899592936796e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.23125</v>
       </c>
       <c r="AH10" t="n">
-        <v>4477694.691245026</v>
+        <v>4655782.341234667</v>
       </c>
     </row>
     <row r="11">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3502.150026088906</v>
+        <v>3646.125790325821</v>
       </c>
       <c r="AB11" t="n">
-        <v>4791.796169649925</v>
+        <v>4988.790162041315</v>
       </c>
       <c r="AC11" t="n">
-        <v>4334.473868546517</v>
+        <v>4512.667030786872</v>
       </c>
       <c r="AD11" t="n">
-        <v>3502150.026088906</v>
+        <v>3646125.79032582</v>
       </c>
       <c r="AE11" t="n">
-        <v>4791796.169649925</v>
+        <v>4988790.162041315</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.45067978152244e-07</v>
+        <v>1.377801647434617e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.96875</v>
       </c>
       <c r="AH11" t="n">
-        <v>4334473.868546518</v>
+        <v>4512667.030786872</v>
       </c>
     </row>
     <row r="12">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3416.59342474697</v>
+        <v>3560.569188983884</v>
       </c>
       <c r="AB12" t="n">
-        <v>4674.733853203021</v>
+        <v>4871.727845594411</v>
       </c>
       <c r="AC12" t="n">
-        <v>4228.583815283318</v>
+        <v>4406.776977523671</v>
       </c>
       <c r="AD12" t="n">
-        <v>3416593.42474697</v>
+        <v>3560569.188983885</v>
       </c>
       <c r="AE12" t="n">
-        <v>4674733.853203021</v>
+        <v>4871727.845594411</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.504521286845244e-07</v>
+        <v>1.385651126673048e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.78333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>4228583.815283318</v>
+        <v>4406776.977523671</v>
       </c>
     </row>
     <row r="13">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3398.840462900517</v>
+        <v>3542.816227137432</v>
       </c>
       <c r="AB13" t="n">
-        <v>4650.443467599302</v>
+        <v>4847.437459990692</v>
       </c>
       <c r="AC13" t="n">
-        <v>4206.611669989848</v>
+        <v>4384.804832230202</v>
       </c>
       <c r="AD13" t="n">
-        <v>3398840.462900517</v>
+        <v>3542816.227137432</v>
       </c>
       <c r="AE13" t="n">
-        <v>4650443.467599302</v>
+        <v>4847437.459990692</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.522468455286181e-07</v>
+        <v>1.388267619752525e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.72083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>4206611.669989848</v>
+        <v>4384804.832230202</v>
       </c>
     </row>
     <row r="14">
@@ -11462,28 +11462,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3406.582781306117</v>
+        <v>3550.558545543031</v>
       </c>
       <c r="AB14" t="n">
-        <v>4661.036849208825</v>
+        <v>4858.030841600214</v>
       </c>
       <c r="AC14" t="n">
-        <v>4216.194034126463</v>
+        <v>4394.387196366816</v>
       </c>
       <c r="AD14" t="n">
-        <v>3406582.781306117</v>
+        <v>3550558.545543031</v>
       </c>
       <c r="AE14" t="n">
-        <v>4661036.849208824</v>
+        <v>4858030.841600214</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.520972857916104e-07</v>
+        <v>1.388049578662569e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.725</v>
       </c>
       <c r="AH14" t="n">
-        <v>4216194.034126462</v>
+        <v>4394387.196366816</v>
       </c>
     </row>
   </sheetData>
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2585.656510714758</v>
+        <v>2741.543089752963</v>
       </c>
       <c r="AB2" t="n">
-        <v>3537.809309074652</v>
+        <v>3751.100203745233</v>
       </c>
       <c r="AC2" t="n">
-        <v>3200.165753962985</v>
+        <v>3393.100465001848</v>
       </c>
       <c r="AD2" t="n">
-        <v>2585656.510714759</v>
+        <v>2741543.089752963</v>
       </c>
       <c r="AE2" t="n">
-        <v>3537809.309074652</v>
+        <v>3751100.203745233</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.568621833142912e-07</v>
+        <v>1.533117982374494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.97083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3200165.753962985</v>
+        <v>3393100.465001848</v>
       </c>
     </row>
     <row r="3">
@@ -11865,28 +11865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2163.292454211559</v>
+        <v>2304.39365014225</v>
       </c>
       <c r="AB3" t="n">
-        <v>2959.912173579677</v>
+        <v>3152.97305479766</v>
       </c>
       <c r="AC3" t="n">
-        <v>2677.422309996059</v>
+        <v>2852.057731673128</v>
       </c>
       <c r="AD3" t="n">
-        <v>2163292.454211559</v>
+        <v>2304393.650142251</v>
       </c>
       <c r="AE3" t="n">
-        <v>2959912.173579677</v>
+        <v>3152973.05479766</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.037406138138726e-06</v>
+        <v>1.662168317591202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.94166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2677422.309996059</v>
+        <v>2852057.731673128</v>
       </c>
     </row>
   </sheetData>
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10004.71897429619</v>
+        <v>10259.77797957676</v>
       </c>
       <c r="AB2" t="n">
-        <v>13688.89787768314</v>
+        <v>14037.88086111719</v>
       </c>
       <c r="AC2" t="n">
-        <v>12382.44867672539</v>
+        <v>12698.12521402117</v>
       </c>
       <c r="AD2" t="n">
-        <v>10004718.97429619</v>
+        <v>10259777.97957676</v>
       </c>
       <c r="AE2" t="n">
-        <v>13688897.87768314</v>
+        <v>14037880.86111719</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.289757065717002e-07</v>
+        <v>7.854459793497449e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.24791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>12382448.67672539</v>
+        <v>12698125.21402117</v>
       </c>
     </row>
     <row r="3">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5047.686279575212</v>
+        <v>5220.583748836642</v>
       </c>
       <c r="AB3" t="n">
-        <v>6906.467055917308</v>
+        <v>7143.03300105882</v>
       </c>
       <c r="AC3" t="n">
-        <v>6247.323533387694</v>
+        <v>6461.31195674728</v>
       </c>
       <c r="AD3" t="n">
-        <v>5047686.279575212</v>
+        <v>5220583.748836642</v>
       </c>
       <c r="AE3" t="n">
-        <v>6906467.055917309</v>
+        <v>7143033.001058821</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.797804727974945e-07</v>
+        <v>1.157851730287763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.5375</v>
       </c>
       <c r="AH3" t="n">
-        <v>6247323.533387694</v>
+        <v>6461311.95674728</v>
       </c>
     </row>
     <row r="4">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4147.285389343889</v>
+        <v>4303.545840760782</v>
       </c>
       <c r="AB4" t="n">
-        <v>5674.498835018967</v>
+        <v>5888.301278372153</v>
       </c>
       <c r="AC4" t="n">
-        <v>5132.932630413678</v>
+        <v>5326.330068646843</v>
       </c>
       <c r="AD4" t="n">
-        <v>4147285.389343889</v>
+        <v>4303545.840760782</v>
       </c>
       <c r="AE4" t="n">
-        <v>5674498.835018967</v>
+        <v>5888301.278372154</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.687205386878568e-07</v>
+        <v>1.289913782077315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.28541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5132932.630413678</v>
+        <v>5326330.068646843</v>
       </c>
     </row>
     <row r="5">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3732.642992178148</v>
+        <v>3880.670230773068</v>
       </c>
       <c r="AB5" t="n">
-        <v>5107.166814485241</v>
+        <v>5309.704212831689</v>
       </c>
       <c r="AC5" t="n">
-        <v>4619.745981664219</v>
+        <v>4802.9534949755</v>
       </c>
       <c r="AD5" t="n">
-        <v>3732642.992178148</v>
+        <v>3880670.230773068</v>
       </c>
       <c r="AE5" t="n">
-        <v>5107166.814485241</v>
+        <v>5309704.212831689</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.14900957515545e-07</v>
+        <v>1.358484462814197e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.40416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4619745.981664219</v>
+        <v>4802953.4949755</v>
       </c>
     </row>
     <row r="6">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3466.047582174997</v>
+        <v>3613.989479915346</v>
       </c>
       <c r="AB6" t="n">
-        <v>4742.399213159496</v>
+        <v>4944.819844383745</v>
       </c>
       <c r="AC6" t="n">
-        <v>4289.791288254473</v>
+        <v>4472.893178533814</v>
       </c>
       <c r="AD6" t="n">
-        <v>3466047.582174997</v>
+        <v>3613989.479915346</v>
       </c>
       <c r="AE6" t="n">
-        <v>4742399.213159496</v>
+        <v>4944819.844383745</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.435110486411161e-07</v>
+        <v>1.400965961991256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.33333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>4289791.288254473</v>
+        <v>4472893.178533814</v>
       </c>
     </row>
     <row r="7">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3270.187202231548</v>
+        <v>3410.151820205088</v>
       </c>
       <c r="AB7" t="n">
-        <v>4474.414400570724</v>
+        <v>4665.92016568528</v>
       </c>
       <c r="AC7" t="n">
-        <v>4047.382570060138</v>
+        <v>4220.611293732183</v>
       </c>
       <c r="AD7" t="n">
-        <v>3270187.202231548</v>
+        <v>3410151.820205088</v>
       </c>
       <c r="AE7" t="n">
-        <v>4474414.400570724</v>
+        <v>4665920.16568528</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.629472518514224e-07</v>
+        <v>1.429825676106105e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.64166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4047382.570060138</v>
+        <v>4220611.293732183</v>
       </c>
     </row>
     <row r="8">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3109.072839595086</v>
+        <v>3248.866865368034</v>
       </c>
       <c r="AB8" t="n">
-        <v>4253.970621747471</v>
+        <v>4445.242975087182</v>
       </c>
       <c r="AC8" t="n">
-        <v>3847.977636092998</v>
+        <v>4020.995224482393</v>
       </c>
       <c r="AD8" t="n">
-        <v>3109072.839595086</v>
+        <v>3248866.865368034</v>
       </c>
       <c r="AE8" t="n">
-        <v>4253970.621747471</v>
+        <v>4445242.975087182</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.767858285371607e-07</v>
+        <v>1.450373792555878e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.16041666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3847977.636092998</v>
+        <v>4020995.224482393</v>
       </c>
     </row>
     <row r="9">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3040.697362093147</v>
+        <v>3180.576639212115</v>
       </c>
       <c r="AB9" t="n">
-        <v>4160.41627691614</v>
+        <v>4351.8052749085</v>
       </c>
       <c r="AC9" t="n">
-        <v>3763.351986628025</v>
+        <v>3936.475087268132</v>
       </c>
       <c r="AD9" t="n">
-        <v>3040697.362093147</v>
+        <v>3180576.639212115</v>
       </c>
       <c r="AE9" t="n">
-        <v>4160416.27691614</v>
+        <v>4351805.2749085</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.819169861846814e-07</v>
+        <v>1.457992757082198e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>33</v>
+        <v>32.99166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3763351.986628025</v>
+        <v>3936475.087268132</v>
       </c>
     </row>
     <row r="10">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3058.536347908533</v>
+        <v>3198.4156250275</v>
       </c>
       <c r="AB10" t="n">
-        <v>4184.824364309262</v>
+        <v>4376.213362301622</v>
       </c>
       <c r="AC10" t="n">
-        <v>3785.430600417313</v>
+        <v>3958.55370105742</v>
       </c>
       <c r="AD10" t="n">
-        <v>3058536.347908533</v>
+        <v>3198415.6250275</v>
       </c>
       <c r="AE10" t="n">
-        <v>4184824.364309262</v>
+        <v>4376213.362301622</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.817614965589991e-07</v>
+        <v>1.45776187936928e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.99791666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3785430.600417313</v>
+        <v>3958553.70105742</v>
       </c>
     </row>
   </sheetData>
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12710.64732622292</v>
+        <v>13011.21218318392</v>
       </c>
       <c r="AB2" t="n">
-        <v>17391.26842592318</v>
+        <v>17802.51452320288</v>
       </c>
       <c r="AC2" t="n">
-        <v>15731.47017615096</v>
+        <v>16103.46752309379</v>
       </c>
       <c r="AD2" t="n">
-        <v>12710647.32622292</v>
+        <v>13011212.18318392</v>
       </c>
       <c r="AE2" t="n">
-        <v>17391268.42592318</v>
+        <v>17802514.52320288</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.667968919746926e-07</v>
+        <v>6.863979790910723e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.99374999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>15731470.17615096</v>
+        <v>16103467.52309379</v>
       </c>
     </row>
     <row r="3">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5796.743172356552</v>
+        <v>5980.459714832187</v>
       </c>
       <c r="AB3" t="n">
-        <v>7931.359742678634</v>
+        <v>8182.728821095644</v>
       </c>
       <c r="AC3" t="n">
-        <v>7174.401900570399</v>
+        <v>7401.780666941997</v>
       </c>
       <c r="AD3" t="n">
-        <v>5796743.172356552</v>
+        <v>5980459.714832188</v>
       </c>
       <c r="AE3" t="n">
-        <v>7931359.742678634</v>
+        <v>8182728.821095644</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.320362486744118e-07</v>
+        <v>1.076417196322651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>7174401.900570398</v>
+        <v>7401780.666941997</v>
       </c>
     </row>
     <row r="4">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4670.873037599502</v>
+        <v>4837.787226977272</v>
       </c>
       <c r="AB4" t="n">
-        <v>6390.894554419129</v>
+        <v>6619.273912060137</v>
       </c>
       <c r="AC4" t="n">
-        <v>5780.956547821967</v>
+        <v>5987.53970010215</v>
       </c>
       <c r="AD4" t="n">
-        <v>4670873.037599502</v>
+        <v>4837787.226977273</v>
       </c>
       <c r="AE4" t="n">
-        <v>6390894.554419129</v>
+        <v>6619273.912060137</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.275589808115307e-07</v>
+        <v>1.216877879380778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.35</v>
       </c>
       <c r="AH4" t="n">
-        <v>5780956.547821968</v>
+        <v>5987539.70010215</v>
       </c>
     </row>
     <row r="5">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4183.073368489713</v>
+        <v>4333.441227333334</v>
       </c>
       <c r="AB5" t="n">
-        <v>5723.465526940497</v>
+        <v>5929.205465172095</v>
       </c>
       <c r="AC5" t="n">
-        <v>5177.226009983399</v>
+        <v>5363.330417267982</v>
       </c>
       <c r="AD5" t="n">
-        <v>4183073.368489713</v>
+        <v>4333441.227333333</v>
       </c>
       <c r="AE5" t="n">
-        <v>5723465.526940497</v>
+        <v>5929205.465172094</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.773770564237123e-07</v>
+        <v>1.290132493990041e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.17291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>5177226.009983399</v>
+        <v>5363330.417267982</v>
       </c>
     </row>
     <row r="6">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3884.652409017232</v>
+        <v>4035.020178352301</v>
       </c>
       <c r="AB6" t="n">
-        <v>5315.15280478666</v>
+        <v>5520.89262054871</v>
       </c>
       <c r="AC6" t="n">
-        <v>4807.882080961434</v>
+        <v>4993.986377464791</v>
       </c>
       <c r="AD6" t="n">
-        <v>3884652.409017232</v>
+        <v>4035020.178352301</v>
       </c>
       <c r="AE6" t="n">
-        <v>5315152.80478666</v>
+        <v>5520892.620548709</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.081515251505034e-07</v>
+        <v>1.335384580078943e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.95</v>
       </c>
       <c r="AH6" t="n">
-        <v>4807882.080961434</v>
+        <v>4993986.377464791</v>
       </c>
     </row>
     <row r="7">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3681.778221393915</v>
+        <v>3823.787574115889</v>
       </c>
       <c r="AB7" t="n">
-        <v>5037.571391102937</v>
+        <v>5231.874852507632</v>
       </c>
       <c r="AC7" t="n">
-        <v>4556.792647811735</v>
+        <v>4732.552059566578</v>
       </c>
       <c r="AD7" t="n">
-        <v>3681778.221393915</v>
+        <v>3823787.574115889</v>
       </c>
       <c r="AE7" t="n">
-        <v>5037571.391102937</v>
+        <v>5231874.852507631</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.288709694418084e-07</v>
+        <v>1.365851331109095e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.17083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4556792.647811735</v>
+        <v>4732552.059566579</v>
       </c>
     </row>
     <row r="8">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3509.966521231232</v>
+        <v>3652.061125299226</v>
       </c>
       <c r="AB8" t="n">
-        <v>4802.491043143084</v>
+        <v>4996.911149200428</v>
       </c>
       <c r="AC8" t="n">
-        <v>4344.14803832384</v>
+        <v>4520.012962329395</v>
       </c>
       <c r="AD8" t="n">
-        <v>3509966.521231232</v>
+        <v>3652061.125299226</v>
       </c>
       <c r="AE8" t="n">
-        <v>4802491.043143084</v>
+        <v>4996911.149200427</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.445629015153701e-07</v>
+        <v>1.388925414609872e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.60208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4344148.038323839</v>
+        <v>4520012.962329395</v>
       </c>
     </row>
     <row r="9">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3363.529573240592</v>
+        <v>3505.453585107994</v>
       </c>
       <c r="AB9" t="n">
-        <v>4602.129550560081</v>
+        <v>4796.316244842577</v>
       </c>
       <c r="AC9" t="n">
-        <v>4162.908765383845</v>
+        <v>4338.56255410675</v>
       </c>
       <c r="AD9" t="n">
-        <v>3363529.573240592</v>
+        <v>3505453.585107994</v>
       </c>
       <c r="AE9" t="n">
-        <v>4602129.550560081</v>
+        <v>4796316.244842578</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.561414145016876e-07</v>
+        <v>1.405950951950251e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.19583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4162908.765383845</v>
+        <v>4338562.554106751</v>
       </c>
     </row>
     <row r="10">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3248.176084065446</v>
+        <v>3390.185347278868</v>
       </c>
       <c r="AB10" t="n">
-        <v>4444.297817633861</v>
+        <v>4638.601156569007</v>
       </c>
       <c r="AC10" t="n">
-        <v>4020.14027152988</v>
+        <v>4195.899572503497</v>
       </c>
       <c r="AD10" t="n">
-        <v>3248176.084065446</v>
+        <v>3390185.347278868</v>
       </c>
       <c r="AE10" t="n">
-        <v>4444297.817633861</v>
+        <v>4638601.156569007</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.642159038210932e-07</v>
+        <v>1.417824024042884e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.91666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>4020140.27152988</v>
+        <v>4195899.572503498</v>
       </c>
     </row>
     <row r="11">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3221.412485113374</v>
+        <v>3363.421748326797</v>
       </c>
       <c r="AB11" t="n">
-        <v>4407.67868082098</v>
+        <v>4601.982019756128</v>
       </c>
       <c r="AC11" t="n">
-        <v>3987.016013739141</v>
+        <v>4162.775314712759</v>
       </c>
       <c r="AD11" t="n">
-        <v>3221412.485113374</v>
+        <v>3363421.748326797</v>
       </c>
       <c r="AE11" t="n">
-        <v>4407678.68082098</v>
+        <v>4601982.019756127</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.661964389371737e-07</v>
+        <v>1.420736287009001e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.85208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3987016.013739141</v>
+        <v>4162775.314712759</v>
       </c>
     </row>
     <row r="12">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3231.997188844096</v>
+        <v>3374.006452057518</v>
       </c>
       <c r="AB12" t="n">
-        <v>4422.161139429526</v>
+        <v>4616.464478364673</v>
       </c>
       <c r="AC12" t="n">
-        <v>4000.116286824345</v>
+        <v>4175.875587797963</v>
       </c>
       <c r="AD12" t="n">
-        <v>3231997.188844096</v>
+        <v>3374006.452057519</v>
       </c>
       <c r="AE12" t="n">
-        <v>4422161.139429526</v>
+        <v>4616464.478364673</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.66653485502423e-07</v>
+        <v>1.42140834769349e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.83333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>4000116.286824345</v>
+        <v>4175875.587797963</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>20852.15652110125</v>
+        <v>21229.59362855859</v>
       </c>
       <c r="AB2" t="n">
-        <v>28530.8404843927</v>
+        <v>29047.26658616586</v>
       </c>
       <c r="AC2" t="n">
-        <v>25807.89711184717</v>
+        <v>26275.03623127566</v>
       </c>
       <c r="AD2" t="n">
-        <v>20852156.52110125</v>
+        <v>21229593.62855859</v>
       </c>
       <c r="AE2" t="n">
-        <v>28530840.4843927</v>
+        <v>29047266.58616586</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.582153416271389e-07</v>
+        <v>5.182561077319138e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.53958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>25807897.11184717</v>
+        <v>26275036.23127566</v>
       </c>
     </row>
     <row r="3">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7439.386083528995</v>
+        <v>7645.183376328306</v>
       </c>
       <c r="AB3" t="n">
-        <v>10178.89624203558</v>
+        <v>10460.4771771794</v>
       </c>
       <c r="AC3" t="n">
-        <v>9207.436670865925</v>
+        <v>9462.14391676093</v>
       </c>
       <c r="AD3" t="n">
-        <v>7439386.083528996</v>
+        <v>7645183.376328305</v>
       </c>
       <c r="AE3" t="n">
-        <v>10178896.24203558</v>
+        <v>10460477.1771794</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.483462402438652e-07</v>
+        <v>9.380095151847321e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.25625</v>
       </c>
       <c r="AH3" t="n">
-        <v>9207436.670865925</v>
+        <v>9462143.916760929</v>
       </c>
     </row>
     <row r="4">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5761.144767531585</v>
+        <v>5941.281326051926</v>
       </c>
       <c r="AB4" t="n">
-        <v>7882.65243470633</v>
+        <v>8129.123221137961</v>
       </c>
       <c r="AC4" t="n">
-        <v>7130.343149709836</v>
+        <v>7353.291110208345</v>
       </c>
       <c r="AD4" t="n">
-        <v>5761144.767531585</v>
+        <v>5941281.326051926</v>
       </c>
       <c r="AE4" t="n">
-        <v>7882652.434706329</v>
+        <v>8129123.221137961</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.543697465300585e-07</v>
+        <v>1.091401409139868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.60833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>7130343.149709837</v>
+        <v>7353291.110208346</v>
       </c>
     </row>
     <row r="5">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5081.709418414935</v>
+        <v>5253.178640872377</v>
       </c>
       <c r="AB5" t="n">
-        <v>6953.019015472774</v>
+        <v>7187.630770327264</v>
       </c>
       <c r="AC5" t="n">
-        <v>6289.432639259269</v>
+        <v>6501.653377510102</v>
       </c>
       <c r="AD5" t="n">
-        <v>5081709.418414935</v>
+        <v>5253178.640872377</v>
       </c>
       <c r="AE5" t="n">
-        <v>6953019.015472774</v>
+        <v>7187630.770327264</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.109842401780258e-07</v>
+        <v>1.173309702028532e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.77291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>6289432.639259269</v>
+        <v>6501653.377510102</v>
       </c>
     </row>
     <row r="6">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4701.460788553431</v>
+        <v>4855.851450957334</v>
       </c>
       <c r="AB6" t="n">
-        <v>6432.74606471063</v>
+        <v>6643.990180246977</v>
       </c>
       <c r="AC6" t="n">
-        <v>5818.813808710211</v>
+        <v>6009.897082342739</v>
       </c>
       <c r="AD6" t="n">
-        <v>4701460.788553431</v>
+        <v>4855851.450957335</v>
       </c>
       <c r="AE6" t="n">
-        <v>6432746.06471063</v>
+        <v>6643990.180246977</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.465704933281768e-07</v>
+        <v>1.224794914701407e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.18958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>5818813.808710211</v>
+        <v>6009897.082342739</v>
       </c>
     </row>
     <row r="7">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4459.319219386554</v>
+        <v>4613.624540935887</v>
       </c>
       <c r="AB7" t="n">
-        <v>6101.437287244395</v>
+        <v>6312.564635658544</v>
       </c>
       <c r="AC7" t="n">
-        <v>5519.124675970575</v>
+        <v>5710.102326571166</v>
       </c>
       <c r="AD7" t="n">
-        <v>4459319.219386554</v>
+        <v>4613624.540935887</v>
       </c>
       <c r="AE7" t="n">
-        <v>6101437.287244394</v>
+        <v>6312564.635658544</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.695103920530675e-07</v>
+        <v>1.257983729482268e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.23125</v>
       </c>
       <c r="AH7" t="n">
-        <v>5519124.675970576</v>
+        <v>5710102.326571166</v>
       </c>
     </row>
     <row r="8">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4270.087947104017</v>
+        <v>4424.478519999372</v>
       </c>
       <c r="AB8" t="n">
-        <v>5842.522712212874</v>
+        <v>6053.766705279672</v>
       </c>
       <c r="AC8" t="n">
-        <v>5284.920544591184</v>
+        <v>5476.003707442486</v>
       </c>
       <c r="AD8" t="n">
-        <v>4270087.947104017</v>
+        <v>4424478.519999372</v>
       </c>
       <c r="AE8" t="n">
-        <v>5842522.712212874</v>
+        <v>6053766.705279673</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.871564679952909e-07</v>
+        <v>1.283513587006008e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.52916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5284920.544591184</v>
+        <v>5476003.707442487</v>
       </c>
     </row>
     <row r="9">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4118.991682260476</v>
+        <v>4264.800349456053</v>
       </c>
       <c r="AB9" t="n">
-        <v>5635.786136757179</v>
+        <v>5835.287987838581</v>
       </c>
       <c r="AC9" t="n">
-        <v>5097.914617740382</v>
+        <v>5278.376292157175</v>
       </c>
       <c r="AD9" t="n">
-        <v>4118991.682260477</v>
+        <v>4264800.349456052</v>
       </c>
       <c r="AE9" t="n">
-        <v>5635786.136757178</v>
+        <v>5835287.987838581</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.008321768505143e-07</v>
+        <v>1.303299226586906e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>35</v>
+        <v>34.00833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>5097914.617740382</v>
+        <v>5278376.292157175</v>
       </c>
     </row>
     <row r="10">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3990.392303078771</v>
+        <v>4136.286221620368</v>
       </c>
       <c r="AB10" t="n">
-        <v>5459.83079275656</v>
+        <v>5659.449288490612</v>
       </c>
       <c r="AC10" t="n">
-        <v>4938.752204816314</v>
+        <v>5119.319391483818</v>
       </c>
       <c r="AD10" t="n">
-        <v>3990392.303078772</v>
+        <v>4136286.221620368</v>
       </c>
       <c r="AE10" t="n">
-        <v>5459830.79275656</v>
+        <v>5659449.288490612</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.111257211501448e-07</v>
+        <v>1.318191643475754e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.62291666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>4938752.204816313</v>
+        <v>5119319.391483817</v>
       </c>
     </row>
     <row r="11">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3877.900212418956</v>
+        <v>4023.623538759961</v>
       </c>
       <c r="AB11" t="n">
-        <v>5305.914151515009</v>
+        <v>5505.299235474215</v>
       </c>
       <c r="AC11" t="n">
-        <v>4799.5251517915</v>
+        <v>4979.881203176353</v>
       </c>
       <c r="AD11" t="n">
-        <v>3877900.212418957</v>
+        <v>4023623.538759961</v>
       </c>
       <c r="AE11" t="n">
-        <v>5305914.151515009</v>
+        <v>5505299.235474215</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.196546578555527e-07</v>
+        <v>1.330531074612228e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.31458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>4799525.1517915</v>
+        <v>4979881.203176353</v>
       </c>
     </row>
     <row r="12">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3777.545963927382</v>
+        <v>3923.269290268386</v>
       </c>
       <c r="AB12" t="n">
-        <v>5168.605041411849</v>
+        <v>5367.990125371054</v>
       </c>
       <c r="AC12" t="n">
-        <v>4675.320630442044</v>
+        <v>4855.676681826897</v>
       </c>
       <c r="AD12" t="n">
-        <v>3777545.963927382</v>
+        <v>3923269.290268386</v>
       </c>
       <c r="AE12" t="n">
-        <v>5168605.041411849</v>
+        <v>5367990.125371054</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.270071894981459e-07</v>
+        <v>1.34116851524712e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>33.05</v>
       </c>
       <c r="AH12" t="n">
-        <v>4675320.630442044</v>
+        <v>4855676.681826897</v>
       </c>
     </row>
     <row r="13">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3670.498978886634</v>
+        <v>3816.307556573658</v>
       </c>
       <c r="AB13" t="n">
-        <v>5022.138633899413</v>
+        <v>5221.640362511267</v>
       </c>
       <c r="AC13" t="n">
-        <v>4542.832771295705</v>
+        <v>4723.294334931272</v>
       </c>
       <c r="AD13" t="n">
-        <v>3670498.978886634</v>
+        <v>3816307.556573658</v>
       </c>
       <c r="AE13" t="n">
-        <v>5022138.633899413</v>
+        <v>5221640.362511267</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.327421641793686e-07</v>
+        <v>1.349465718942335e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.84375</v>
       </c>
       <c r="AH13" t="n">
-        <v>4542832.771295705</v>
+        <v>4723294.334931272</v>
       </c>
     </row>
     <row r="14">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3596.120159606512</v>
+        <v>3741.928737293537</v>
       </c>
       <c r="AB14" t="n">
-        <v>4920.370251998425</v>
+        <v>5119.871980610278</v>
       </c>
       <c r="AC14" t="n">
-        <v>4450.777020930531</v>
+        <v>4631.238584566097</v>
       </c>
       <c r="AD14" t="n">
-        <v>3596120.159606512</v>
+        <v>3741928.737293537</v>
       </c>
       <c r="AE14" t="n">
-        <v>4920370.251998425</v>
+        <v>5119871.980610278</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.370066325320726e-07</v>
+        <v>1.355635434510572e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.69375</v>
       </c>
       <c r="AH14" t="n">
-        <v>4450777.020930531</v>
+        <v>4631238.584566097</v>
       </c>
     </row>
     <row r="15">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3571.066488283244</v>
+        <v>3716.875065970268</v>
       </c>
       <c r="AB15" t="n">
-        <v>4886.090713603955</v>
+        <v>5085.592442215809</v>
       </c>
       <c r="AC15" t="n">
-        <v>4419.769073568797</v>
+        <v>4600.230637204363</v>
       </c>
       <c r="AD15" t="n">
-        <v>3571066.488283244</v>
+        <v>3716875.065970268</v>
       </c>
       <c r="AE15" t="n">
-        <v>4886090.713603955</v>
+        <v>5085592.442215809</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.38771240126295e-07</v>
+        <v>1.358188420262946e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>33</v>
+        <v>32.63541666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>4419769.073568797</v>
+        <v>4600230.637204363</v>
       </c>
     </row>
     <row r="16">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3579.87472281658</v>
+        <v>3725.683300503605</v>
       </c>
       <c r="AB16" t="n">
-        <v>4898.14252868435</v>
+        <v>5097.644257296203</v>
       </c>
       <c r="AC16" t="n">
-        <v>4430.670680332746</v>
+        <v>4611.132243968312</v>
       </c>
       <c r="AD16" t="n">
-        <v>3579874.72281658</v>
+        <v>3725683.300503605</v>
       </c>
       <c r="AE16" t="n">
-        <v>4898142.52868435</v>
+        <v>5097644.257296204</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.386241894934431e-07</v>
+        <v>1.357975671450248e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>33</v>
+        <v>32.6375</v>
       </c>
       <c r="AH16" t="n">
-        <v>4430670.680332746</v>
+        <v>4611132.243968312</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7858.547937145155</v>
+        <v>8092.985130998189</v>
       </c>
       <c r="AB2" t="n">
-        <v>10752.41198226912</v>
+        <v>11073.17929353791</v>
       </c>
       <c r="AC2" t="n">
-        <v>9726.216873785948</v>
+        <v>10016.37060306698</v>
       </c>
       <c r="AD2" t="n">
-        <v>7858547.937145155</v>
+        <v>8092985.130998189</v>
       </c>
       <c r="AE2" t="n">
-        <v>10752411.98226912</v>
+        <v>11073179.29353791</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.975281083859783e-07</v>
+        <v>8.97298766816549e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.47291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>9726216.873785948</v>
+        <v>10016370.60306698</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4344.466753269682</v>
+        <v>4514.308065457717</v>
       </c>
       <c r="AB3" t="n">
-        <v>5944.291076170082</v>
+        <v>6176.675452375637</v>
       </c>
       <c r="AC3" t="n">
-        <v>5376.976278725109</v>
+        <v>5587.182216219117</v>
       </c>
       <c r="AD3" t="n">
-        <v>4344466.753269682</v>
+        <v>4514308.065457717</v>
       </c>
       <c r="AE3" t="n">
-        <v>5944291.076170082</v>
+        <v>6176675.452375637</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.320213010805822e-07</v>
+        <v>1.249433586381936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.83333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>5376976.278725109</v>
+        <v>5587182.216219118</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3627.869036450944</v>
+        <v>3773.508351302505</v>
       </c>
       <c r="AB4" t="n">
-        <v>4963.810465958572</v>
+        <v>5163.080601691596</v>
       </c>
       <c r="AC4" t="n">
-        <v>4490.071361839043</v>
+        <v>4670.323435495091</v>
       </c>
       <c r="AD4" t="n">
-        <v>3627869.036450944</v>
+        <v>3773508.351302505</v>
       </c>
       <c r="AE4" t="n">
-        <v>4963810.465958572</v>
+        <v>5163080.601691596</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.139507408619397e-07</v>
+        <v>1.372465765538092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.26458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4490071.361839043</v>
+        <v>4670323.435495091</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3266.684325735408</v>
+        <v>3412.323551078418</v>
       </c>
       <c r="AB5" t="n">
-        <v>4469.621610412699</v>
+        <v>4668.891623676175</v>
       </c>
       <c r="AC5" t="n">
-        <v>4043.047197068073</v>
+        <v>4223.299159942893</v>
       </c>
       <c r="AD5" t="n">
-        <v>3266684.325735408</v>
+        <v>3412323.551078418</v>
       </c>
       <c r="AE5" t="n">
-        <v>4469621.610412699</v>
+        <v>4668891.623676175</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.565858668064131e-07</v>
+        <v>1.436490278186344e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.64583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>4043047.197068073</v>
+        <v>4223299.159942893</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3026.132132729053</v>
+        <v>3171.686017217491</v>
       </c>
       <c r="AB6" t="n">
-        <v>4140.487487527617</v>
+        <v>4339.640733668894</v>
       </c>
       <c r="AC6" t="n">
-        <v>3745.325172928512</v>
+        <v>3925.471512771394</v>
       </c>
       <c r="AD6" t="n">
-        <v>3026132.132729053</v>
+        <v>3171686.017217491</v>
       </c>
       <c r="AE6" t="n">
-        <v>4140487.487527617</v>
+        <v>4339640.733668894</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.8251693221294e-07</v>
+        <v>1.475430560132856e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.73125</v>
       </c>
       <c r="AH6" t="n">
-        <v>3745325.172928512</v>
+        <v>3925471.512771394</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2882.301357801213</v>
+        <v>3019.759522565003</v>
       </c>
       <c r="AB7" t="n">
-        <v>3943.69187590538</v>
+        <v>4131.768201161445</v>
       </c>
       <c r="AC7" t="n">
-        <v>3567.311458275132</v>
+        <v>3737.438043015532</v>
       </c>
       <c r="AD7" t="n">
-        <v>2882301.357801213</v>
+        <v>3019759.522565003</v>
       </c>
       <c r="AE7" t="n">
-        <v>3943691.87590538</v>
+        <v>4131768.201161446</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.961983532249723e-07</v>
+        <v>1.495975739564758e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.26666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3567311.458275132</v>
+        <v>3737438.043015532</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2881.431846502513</v>
+        <v>3018.890011266303</v>
       </c>
       <c r="AB8" t="n">
-        <v>3942.502172186366</v>
+        <v>4130.578497442431</v>
       </c>
       <c r="AC8" t="n">
-        <v>3566.235298209302</v>
+        <v>3736.361882949702</v>
       </c>
       <c r="AD8" t="n">
-        <v>2881431.846502513</v>
+        <v>3018890.011266303</v>
       </c>
       <c r="AE8" t="n">
-        <v>3942502.172186366</v>
+        <v>4130578.497442432</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.977892161333482e-07</v>
+        <v>1.498364713917304e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.21666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3566235.298209302</v>
+        <v>3736361.882949702</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5310.338125040159</v>
+        <v>5506.622243133026</v>
       </c>
       <c r="AB2" t="n">
-        <v>7265.838898264097</v>
+        <v>7534.403488082912</v>
       </c>
       <c r="AC2" t="n">
-        <v>6572.397431482437</v>
+        <v>6815.330593781704</v>
       </c>
       <c r="AD2" t="n">
-        <v>5310338.125040159</v>
+        <v>5506622.243133026</v>
       </c>
       <c r="AE2" t="n">
-        <v>7265838.898264097</v>
+        <v>7534403.488082912</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.195353114177657e-07</v>
+        <v>1.103584944592599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.98125</v>
       </c>
       <c r="AH2" t="n">
-        <v>6572397.431482437</v>
+        <v>6815330.593781704</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3322.975682966435</v>
+        <v>3472.110738615371</v>
       </c>
       <c r="AB3" t="n">
-        <v>4546.641928775608</v>
+        <v>4750.6950912888</v>
       </c>
       <c r="AC3" t="n">
-        <v>4112.716804345117</v>
+        <v>4297.295419418455</v>
       </c>
       <c r="AD3" t="n">
-        <v>3322975.682966435</v>
+        <v>3472110.738615371</v>
       </c>
       <c r="AE3" t="n">
-        <v>4546641.928775608</v>
+        <v>4750695.091288799</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.240278434973425e-07</v>
+        <v>1.417224700840242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>4112716.804345116</v>
+        <v>4297295.419418455</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2796.030818257012</v>
+        <v>2937.392933259888</v>
       </c>
       <c r="AB4" t="n">
-        <v>3825.652717713404</v>
+        <v>4019.070599916718</v>
       </c>
       <c r="AC4" t="n">
-        <v>3460.537791672004</v>
+        <v>3635.496142661529</v>
       </c>
       <c r="AD4" t="n">
-        <v>2796030.818257012</v>
+        <v>2937392.933259888</v>
       </c>
       <c r="AE4" t="n">
-        <v>3825652.717713404</v>
+        <v>4019070.599916718</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.954510860632241e-07</v>
+        <v>1.526769866920254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.68333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3460537.791672004</v>
+        <v>3635496.142661529</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2589.600446254771</v>
+        <v>2730.877220403076</v>
       </c>
       <c r="AB5" t="n">
-        <v>3543.205575674654</v>
+        <v>3736.50669075577</v>
       </c>
       <c r="AC5" t="n">
-        <v>3205.047008452389</v>
+        <v>3379.899736409975</v>
       </c>
       <c r="AD5" t="n">
-        <v>2589600.446254771</v>
+        <v>2730877.220403076</v>
       </c>
       <c r="AE5" t="n">
-        <v>3543205.575674654</v>
+        <v>3736506.69075577</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.021302654138114e-06</v>
+        <v>1.566419625408611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.80416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3205047.008452389</v>
+        <v>3379899.736409975</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2601.983675486954</v>
+        <v>2743.260449635259</v>
       </c>
       <c r="AB6" t="n">
-        <v>3560.148856219645</v>
+        <v>3753.449971300762</v>
       </c>
       <c r="AC6" t="n">
-        <v>3220.37324608221</v>
+        <v>3395.225974039796</v>
       </c>
       <c r="AD6" t="n">
-        <v>2601983.675486954</v>
+        <v>2743260.449635259</v>
       </c>
       <c r="AE6" t="n">
-        <v>3560148.856219645</v>
+        <v>3753449.971300762</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.021634084498048e-06</v>
+        <v>1.566927955645641e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.78958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3220373.24608221</v>
+        <v>3395225.974039796</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3904.385374921256</v>
+        <v>4072.916504702675</v>
       </c>
       <c r="AB2" t="n">
-        <v>5342.152319293562</v>
+        <v>5572.744046129218</v>
       </c>
       <c r="AC2" t="n">
-        <v>4832.304799697854</v>
+        <v>5040.889175761828</v>
       </c>
       <c r="AD2" t="n">
-        <v>3904385.374921256</v>
+        <v>4072916.504702675</v>
       </c>
       <c r="AE2" t="n">
-        <v>5342152.319293562</v>
+        <v>5572744.046129218</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.216387021052312e-07</v>
+        <v>1.283794264915674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.4625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4832304.799697854</v>
+        <v>5040889.175761827</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2600.548021857402</v>
+        <v>2746.074281859996</v>
       </c>
       <c r="AB3" t="n">
-        <v>3558.184531587123</v>
+        <v>3757.299980688162</v>
       </c>
       <c r="AC3" t="n">
-        <v>3218.596393835669</v>
+        <v>3398.708543934785</v>
       </c>
       <c r="AD3" t="n">
-        <v>2600548.021857402</v>
+        <v>2746074.281859996</v>
       </c>
       <c r="AE3" t="n">
-        <v>3558184.531587123</v>
+        <v>3757299.980688162</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.001806087023361e-06</v>
+        <v>1.565302249982725e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.64583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3218596.393835669</v>
+        <v>3398708.543934785</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2392.286611983676</v>
+        <v>2530.229952750751</v>
       </c>
       <c r="AB4" t="n">
-        <v>3273.232082752918</v>
+        <v>3461.972247221132</v>
       </c>
       <c r="AC4" t="n">
-        <v>2960.839406784938</v>
+        <v>3131.566474854782</v>
       </c>
       <c r="AD4" t="n">
-        <v>2392286.611983676</v>
+        <v>2530229.952750751</v>
       </c>
       <c r="AE4" t="n">
-        <v>3273232.082752918</v>
+        <v>3461972.247221132</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.034891058754283e-06</v>
+        <v>1.616996865699129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.5125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2960839.406784938</v>
+        <v>3131566.474854782</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2410.5316412027</v>
+        <v>2548.474981969774</v>
       </c>
       <c r="AB5" t="n">
-        <v>3298.195736644268</v>
+        <v>3486.935901112482</v>
       </c>
       <c r="AC5" t="n">
-        <v>2983.420564585604</v>
+        <v>3154.147632655448</v>
       </c>
       <c r="AD5" t="n">
-        <v>2410531.641202699</v>
+        <v>2548474.981969774</v>
       </c>
       <c r="AE5" t="n">
-        <v>3298195.736644268</v>
+        <v>3486935.901112482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034891058754283e-06</v>
+        <v>1.616996865699129e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.5125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2983420.564585604</v>
+        <v>3154147.632655448</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2042.533928968114</v>
+        <v>2181.077295992244</v>
       </c>
       <c r="AB2" t="n">
-        <v>2794.685031851458</v>
+        <v>2984.246178715855</v>
       </c>
       <c r="AC2" t="n">
-        <v>2527.964214776631</v>
+        <v>2699.433911835031</v>
       </c>
       <c r="AD2" t="n">
-        <v>2042533.928968114</v>
+        <v>2181077.295992244</v>
       </c>
       <c r="AE2" t="n">
-        <v>2794685.031851458</v>
+        <v>2984246.178715855</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.019310263264634e-06</v>
+        <v>1.661145608261792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2527964.214776631</v>
+        <v>2699433.911835031</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2051.753590255349</v>
+        <v>2190.126365078886</v>
       </c>
       <c r="AB3" t="n">
-        <v>2807.299779167402</v>
+        <v>2996.627514256951</v>
       </c>
       <c r="AC3" t="n">
-        <v>2539.37502831365</v>
+        <v>2710.633590089398</v>
       </c>
       <c r="AD3" t="n">
-        <v>2051753.590255348</v>
+        <v>2190126.365078886</v>
       </c>
       <c r="AE3" t="n">
-        <v>2807299.779167402</v>
+        <v>2996627.514256951</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.023174074731882e-06</v>
+        <v>1.667442369592748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.46666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2539375.02831365</v>
+        <v>2710633.590089398</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11280.26037936306</v>
+        <v>11553.8119024022</v>
       </c>
       <c r="AB2" t="n">
-        <v>15434.14990101099</v>
+        <v>15808.43516307462</v>
       </c>
       <c r="AC2" t="n">
-        <v>13961.13629642336</v>
+        <v>14299.70029838828</v>
       </c>
       <c r="AD2" t="n">
-        <v>11280260.37936306</v>
+        <v>11553811.9024022</v>
       </c>
       <c r="AE2" t="n">
-        <v>15434149.90101099</v>
+        <v>15808435.16307462</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.969992436632169e-07</v>
+        <v>7.342571425724978e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.49374999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>13961136.29642336</v>
+        <v>14299700.29838828</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5419.388159515493</v>
+        <v>5601.670530523196</v>
       </c>
       <c r="AB3" t="n">
-        <v>7415.045966381239</v>
+        <v>7664.452748124644</v>
       </c>
       <c r="AC3" t="n">
-        <v>6707.364386431911</v>
+        <v>6932.968134970331</v>
       </c>
       <c r="AD3" t="n">
-        <v>5419388.159515494</v>
+        <v>5601670.530523196</v>
       </c>
       <c r="AE3" t="n">
-        <v>7415045.966381239</v>
+        <v>7664452.748124644</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.551926587922813e-07</v>
+        <v>1.115707138001801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.44375</v>
       </c>
       <c r="AH3" t="n">
-        <v>6707364.386431911</v>
+        <v>6932968.134970332</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4406.473673839669</v>
+        <v>4572.24690491495</v>
       </c>
       <c r="AB4" t="n">
-        <v>6029.131680446213</v>
+        <v>6255.949928602226</v>
       </c>
       <c r="AC4" t="n">
-        <v>5453.719814803658</v>
+        <v>5658.890847697065</v>
       </c>
       <c r="AD4" t="n">
-        <v>4406473.673839669</v>
+        <v>4572246.90491495</v>
       </c>
       <c r="AE4" t="n">
-        <v>6029131.680446213</v>
+        <v>6255949.928602226</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.473606299855527e-07</v>
+        <v>1.251874329457197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.83125</v>
       </c>
       <c r="AH4" t="n">
-        <v>5453719.814803658</v>
+        <v>5658890.847697064</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3958.254172363192</v>
+        <v>4115.730207799251</v>
       </c>
       <c r="AB5" t="n">
-        <v>5415.857984477239</v>
+        <v>5631.323643513233</v>
       </c>
       <c r="AC5" t="n">
-        <v>4898.97609964295</v>
+        <v>5093.87801858849</v>
       </c>
       <c r="AD5" t="n">
-        <v>3958254.172363192</v>
+        <v>4115730.207799251</v>
       </c>
       <c r="AE5" t="n">
-        <v>5415857.98447724</v>
+        <v>5631323.643513233</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.953679872681915e-07</v>
+        <v>1.32279947759423e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.80208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>4898976.099642949</v>
+        <v>5093878.01858849</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3679.964367630057</v>
+        <v>3829.228548281467</v>
       </c>
       <c r="AB6" t="n">
-        <v>5035.089596361645</v>
+        <v>5239.319433399814</v>
       </c>
       <c r="AC6" t="n">
-        <v>4554.547712077331</v>
+        <v>4739.286140106947</v>
       </c>
       <c r="AD6" t="n">
-        <v>3679964.367630057</v>
+        <v>3829228.548281467</v>
       </c>
       <c r="AE6" t="n">
-        <v>5035089.596361645</v>
+        <v>5239319.433399814</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.25372585569841e-07</v>
+        <v>1.367127695179877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.63958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4554547.712077331</v>
+        <v>4739286.140106947</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3476.611875336099</v>
+        <v>3625.790715132937</v>
       </c>
       <c r="AB7" t="n">
-        <v>4756.853745126236</v>
+        <v>4960.966815042209</v>
       </c>
       <c r="AC7" t="n">
-        <v>4302.866299977371</v>
+        <v>4487.499104975049</v>
       </c>
       <c r="AD7" t="n">
-        <v>3476611.875336099</v>
+        <v>3625790.715132937</v>
       </c>
       <c r="AE7" t="n">
-        <v>4756853.745126236</v>
+        <v>4960966.815042209</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.455295208391542e-07</v>
+        <v>1.396907164429721e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.90416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4302866.299977371</v>
+        <v>4487499.104975048</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3312.917461655458</v>
+        <v>3453.799195321626</v>
       </c>
       <c r="AB8" t="n">
-        <v>4532.879826640521</v>
+        <v>4725.640429906021</v>
       </c>
       <c r="AC8" t="n">
-        <v>4100.268137922572</v>
+        <v>4274.631939753612</v>
       </c>
       <c r="AD8" t="n">
-        <v>3312917.461655458</v>
+        <v>3453799.195321626</v>
       </c>
       <c r="AE8" t="n">
-        <v>4532879.826640521</v>
+        <v>4725640.429906022</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.601471456527782e-07</v>
+        <v>1.418502962740677e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.3875</v>
       </c>
       <c r="AH8" t="n">
-        <v>4100268.137922572</v>
+        <v>4274631.939753612</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3172.456901784952</v>
+        <v>3313.338635451121</v>
       </c>
       <c r="AB9" t="n">
-        <v>4340.695491943122</v>
+        <v>4533.456095208622</v>
       </c>
       <c r="AC9" t="n">
-        <v>3926.425606396293</v>
+        <v>4100.789408227331</v>
       </c>
       <c r="AD9" t="n">
-        <v>3172456.901784952</v>
+        <v>3313338.635451121</v>
       </c>
       <c r="AE9" t="n">
-        <v>4340695.491943122</v>
+        <v>4533456.095208623</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.71071896829276e-07</v>
+        <v>1.434642980425707e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.01041666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3926425.606396292</v>
+        <v>4100789.408227331</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3128.150498321595</v>
+        <v>3269.117483333784</v>
       </c>
       <c r="AB10" t="n">
-        <v>4280.073516063985</v>
+        <v>4472.950763982135</v>
       </c>
       <c r="AC10" t="n">
-        <v>3871.589306811585</v>
+        <v>4046.058620893337</v>
       </c>
       <c r="AD10" t="n">
-        <v>3128150.498321595</v>
+        <v>3269117.483333784</v>
       </c>
       <c r="AE10" t="n">
-        <v>4280073.516063985</v>
+        <v>4472950.763982135</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.741492915268811e-07</v>
+        <v>1.439189464280645e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>33</v>
+        <v>32.90625</v>
       </c>
       <c r="AH10" t="n">
-        <v>3871589.306811585</v>
+        <v>4046058.620893337</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3146.992345073725</v>
+        <v>3287.959330085913</v>
       </c>
       <c r="AB11" t="n">
-        <v>4305.853762033862</v>
+        <v>4498.731009952013</v>
       </c>
       <c r="AC11" t="n">
-        <v>3894.909122288899</v>
+        <v>4069.37843637065</v>
       </c>
       <c r="AD11" t="n">
-        <v>3146992.345073725</v>
+        <v>3287959.330085913</v>
       </c>
       <c r="AE11" t="n">
-        <v>4305853.762033862</v>
+        <v>4498731.009952012</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.741492915268811e-07</v>
+        <v>1.439189464280645e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>33</v>
+        <v>32.90625</v>
       </c>
       <c r="AH11" t="n">
-        <v>3894909.122288899</v>
+        <v>4069378.43637065</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>18330.04112949266</v>
+        <v>18679.47349290647</v>
       </c>
       <c r="AB2" t="n">
-        <v>25079.97093771526</v>
+        <v>25558.07971320594</v>
       </c>
       <c r="AC2" t="n">
-        <v>22686.37371137906</v>
+        <v>23118.85245636677</v>
       </c>
       <c r="AD2" t="n">
-        <v>18330041.12949266</v>
+        <v>18679473.49290647</v>
       </c>
       <c r="AE2" t="n">
-        <v>25079970.93771527</v>
+        <v>25558079.71320594</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.840290718736035e-07</v>
+        <v>5.57675119275538e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>22686373.71137906</v>
+        <v>23118852.45636677</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7007.545709608981</v>
+        <v>7211.985364730777</v>
       </c>
       <c r="AB3" t="n">
-        <v>9588.033190985476</v>
+        <v>9867.756546364169</v>
       </c>
       <c r="AC3" t="n">
-        <v>8672.964760126561</v>
+        <v>8925.991711062097</v>
       </c>
       <c r="AD3" t="n">
-        <v>7007545.709608981</v>
+        <v>7211985.364730777</v>
       </c>
       <c r="AE3" t="n">
-        <v>9588033.190985477</v>
+        <v>9867756.54636417</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.679733470233913e-07</v>
+        <v>9.700101978132428e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>8672964.760126561</v>
+        <v>8925991.711062098</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5489.1158210196</v>
+        <v>5659.610226487711</v>
       </c>
       <c r="AB4" t="n">
-        <v>7510.450429018484</v>
+        <v>7743.728396262283</v>
       </c>
       <c r="AC4" t="n">
-        <v>6793.663581056057</v>
+        <v>7004.677826513784</v>
       </c>
       <c r="AD4" t="n">
-        <v>5489115.8210196</v>
+        <v>5659610.226487711</v>
       </c>
       <c r="AE4" t="n">
-        <v>7510450.429018484</v>
+        <v>7743728.396262283</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.714684405244628e-07</v>
+        <v>1.120302565865106e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>6793663.581056057</v>
+        <v>7004677.826513784</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4852.191132508557</v>
+        <v>5014.07121428139</v>
       </c>
       <c r="AB5" t="n">
-        <v>6638.981971063504</v>
+        <v>6860.473440590285</v>
       </c>
       <c r="AC5" t="n">
-        <v>6005.36684961467</v>
+        <v>6205.719484155036</v>
       </c>
       <c r="AD5" t="n">
-        <v>4852191.132508556</v>
+        <v>5014071.21428139</v>
       </c>
       <c r="AE5" t="n">
-        <v>6638981.971063504</v>
+        <v>6860473.440590285</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.27071105371027e-07</v>
+        <v>1.20104703294168e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.35</v>
       </c>
       <c r="AH5" t="n">
-        <v>6005366.849614671</v>
+        <v>6205719.484155037</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4496.492343484769</v>
+        <v>4658.372335749052</v>
       </c>
       <c r="AB6" t="n">
-        <v>6152.299195598067</v>
+        <v>6373.790542655299</v>
       </c>
       <c r="AC6" t="n">
-        <v>5565.132395176109</v>
+        <v>5765.484918935248</v>
       </c>
       <c r="AD6" t="n">
-        <v>4496492.343484769</v>
+        <v>4658372.335749052</v>
       </c>
       <c r="AE6" t="n">
-        <v>6152299.195598067</v>
+        <v>6373790.542655298</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.608775255977381e-07</v>
+        <v>1.250139668924237e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.88125</v>
       </c>
       <c r="AH6" t="n">
-        <v>5565132.395176109</v>
+        <v>5765484.918935248</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4256.242297169323</v>
+        <v>4409.67864744747</v>
       </c>
       <c r="AB7" t="n">
-        <v>5823.578483145257</v>
+        <v>6033.516866729865</v>
       </c>
       <c r="AC7" t="n">
-        <v>5267.784326157389</v>
+        <v>5457.686485063046</v>
       </c>
       <c r="AD7" t="n">
-        <v>4256242.297169323</v>
+        <v>4409678.647447471</v>
       </c>
       <c r="AE7" t="n">
-        <v>5823578.483145257</v>
+        <v>6033516.866729865</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.843047817197572e-07</v>
+        <v>1.284160004385834e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>34.93541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5267784.326157389</v>
+        <v>5457686.485063046</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4081.910824622777</v>
+        <v>4226.81828156877</v>
       </c>
       <c r="AB8" t="n">
-        <v>5585.05047144529</v>
+        <v>5783.319246904623</v>
       </c>
       <c r="AC8" t="n">
-        <v>5052.02109311791</v>
+        <v>5231.367374919371</v>
       </c>
       <c r="AD8" t="n">
-        <v>4081910.824622776</v>
+        <v>4226818.281568769</v>
       </c>
       <c r="AE8" t="n">
-        <v>5585050.47144529</v>
+        <v>5783319.246904624</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.007631705143401e-07</v>
+        <v>1.308060366640499e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>35</v>
+        <v>34.29166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>5052021.09311791</v>
+        <v>5231367.374919372</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3936.690410610502</v>
+        <v>4090.041420034078</v>
       </c>
       <c r="AB9" t="n">
-        <v>5386.35349432118</v>
+        <v>5596.17511078359</v>
       </c>
       <c r="AC9" t="n">
-        <v>4872.287476617573</v>
+        <v>5062.08401249129</v>
       </c>
       <c r="AD9" t="n">
-        <v>3936690.410610502</v>
+        <v>4090041.420034078</v>
       </c>
       <c r="AE9" t="n">
-        <v>5386353.49432118</v>
+        <v>5596175.11078359</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.133664412128947e-07</v>
+        <v>1.326362445844523e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.82083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4872287.476617573</v>
+        <v>5062084.01249129</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3813.052595198018</v>
+        <v>3957.874711289439</v>
       </c>
       <c r="AB10" t="n">
-        <v>5217.186780758355</v>
+        <v>5415.33878909549</v>
       </c>
       <c r="AC10" t="n">
-        <v>4719.265796770216</v>
+        <v>4898.506455539738</v>
       </c>
       <c r="AD10" t="n">
-        <v>3813052.595198018</v>
+        <v>3957874.711289439</v>
       </c>
       <c r="AE10" t="n">
-        <v>5217186.780758355</v>
+        <v>5415338.78909549</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.235973315446625e-07</v>
+        <v>1.341219427786612e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>33.44583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4719265.796770216</v>
+        <v>4898506.455539739</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3696.148529683834</v>
+        <v>3840.970645775255</v>
       </c>
       <c r="AB11" t="n">
-        <v>5057.233480878461</v>
+        <v>5255.385489215598</v>
       </c>
       <c r="AC11" t="n">
-        <v>4574.578215335</v>
+        <v>4753.818874104522</v>
       </c>
       <c r="AD11" t="n">
-        <v>3696148.529683833</v>
+        <v>3840970.645775255</v>
       </c>
       <c r="AE11" t="n">
-        <v>5057233.480878461</v>
+        <v>5255385.489215598</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.323454841471887e-07</v>
+        <v>1.353923223939993e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>33.13125</v>
       </c>
       <c r="AH11" t="n">
-        <v>4574578.215335</v>
+        <v>4753818.874104522</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3583.552950792845</v>
+        <v>3728.460318230286</v>
       </c>
       <c r="AB12" t="n">
-        <v>4903.17524247344</v>
+        <v>5101.443895463226</v>
       </c>
       <c r="AC12" t="n">
-        <v>4435.223078981264</v>
+        <v>4614.569250001497</v>
       </c>
       <c r="AD12" t="n">
-        <v>3583552.950792845</v>
+        <v>3728460.318230286</v>
       </c>
       <c r="AE12" t="n">
-        <v>4903175.24247344</v>
+        <v>5101443.895463226</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.390178039287763e-07</v>
+        <v>1.363612559989182e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>33</v>
+        <v>32.89375</v>
       </c>
       <c r="AH12" t="n">
-        <v>4435223.078981264</v>
+        <v>4614569.250001498</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3498.443032296692</v>
+        <v>3643.350399734133</v>
       </c>
       <c r="AB13" t="n">
-        <v>4786.724097202392</v>
+        <v>4984.992750192177</v>
       </c>
       <c r="AC13" t="n">
-        <v>4329.885867574681</v>
+        <v>4509.232038594913</v>
       </c>
       <c r="AD13" t="n">
-        <v>3498443.032296692</v>
+        <v>3643350.399734133</v>
       </c>
       <c r="AE13" t="n">
-        <v>4786724.097202392</v>
+        <v>4984992.750192177</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.440591122081982e-07</v>
+        <v>1.370933391670792e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>33</v>
+        <v>32.71875</v>
       </c>
       <c r="AH13" t="n">
-        <v>4329885.867574681</v>
+        <v>4509232.038594914</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3483.254795780671</v>
+        <v>3628.162163218111</v>
       </c>
       <c r="AB14" t="n">
-        <v>4765.942881943465</v>
+        <v>4964.211534933251</v>
       </c>
       <c r="AC14" t="n">
-        <v>4311.087982333447</v>
+        <v>4490.434153353681</v>
       </c>
       <c r="AD14" t="n">
-        <v>3483254.79578067</v>
+        <v>3628162.163218111</v>
       </c>
       <c r="AE14" t="n">
-        <v>4765942.881943465</v>
+        <v>4964211.53493325</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.452453023915915e-07</v>
+        <v>1.372655940301759e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>33</v>
+        <v>32.68125</v>
       </c>
       <c r="AH14" t="n">
-        <v>4311087.982333447</v>
+        <v>4490434.153353681</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3490.997830483422</v>
+        <v>3635.905197920863</v>
       </c>
       <c r="AB15" t="n">
-        <v>4776.537243622353</v>
+        <v>4974.805896612139</v>
       </c>
       <c r="AC15" t="n">
-        <v>4320.671233002982</v>
+        <v>4500.017404023216</v>
       </c>
       <c r="AD15" t="n">
-        <v>3490997.830483422</v>
+        <v>3635905.197920864</v>
       </c>
       <c r="AE15" t="n">
-        <v>4776537.243622353</v>
+        <v>4974805.896612138</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.458383974832882e-07</v>
+        <v>1.373517214617242e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>33</v>
+        <v>32.66041666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>4320671.233002982</v>
+        <v>4500017.404023216</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1888.983360745769</v>
+        <v>2038.32696326668</v>
       </c>
       <c r="AB2" t="n">
-        <v>2584.590370236673</v>
+        <v>2788.928875780528</v>
       </c>
       <c r="AC2" t="n">
-        <v>2337.920692796652</v>
+        <v>2522.757418162296</v>
       </c>
       <c r="AD2" t="n">
-        <v>1888983.360745769</v>
+        <v>2038326.96326668</v>
       </c>
       <c r="AE2" t="n">
-        <v>2584590.370236673</v>
+        <v>2788928.875780528</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.752878107186671e-07</v>
+        <v>1.625746673754777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>2337920.692796652</v>
+        <v>2522757.418162296</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6089.674468995034</v>
+        <v>6295.924601311082</v>
       </c>
       <c r="AB2" t="n">
-        <v>8332.16126595616</v>
+        <v>8614.361796104649</v>
       </c>
       <c r="AC2" t="n">
-        <v>7536.951488994772</v>
+        <v>7792.219196616812</v>
       </c>
       <c r="AD2" t="n">
-        <v>6089674.468995034</v>
+        <v>6295924.601311082</v>
       </c>
       <c r="AE2" t="n">
-        <v>8332161.26595616</v>
+        <v>8614361.796104649</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.758976431508589e-07</v>
+        <v>1.028653098717479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.3375</v>
       </c>
       <c r="AH2" t="n">
-        <v>7536951.488994773</v>
+        <v>7792219.196616812</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3667.581883772988</v>
+        <v>3818.40491096747</v>
       </c>
       <c r="AB3" t="n">
-        <v>5018.147335671768</v>
+        <v>5224.510055321624</v>
       </c>
       <c r="AC3" t="n">
-        <v>4539.222396969086</v>
+        <v>4725.890148287448</v>
       </c>
       <c r="AD3" t="n">
-        <v>3667581.883772988</v>
+        <v>3818404.91096747</v>
       </c>
       <c r="AE3" t="n">
-        <v>5018147.335671768</v>
+        <v>5224510.055321625</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.909634068690712e-07</v>
+        <v>1.355963108625892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.18125</v>
       </c>
       <c r="AH3" t="n">
-        <v>4539222.396969086</v>
+        <v>4725890.148287448</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3089.347341996424</v>
+        <v>3232.142487360518</v>
       </c>
       <c r="AB4" t="n">
-        <v>4226.981325705445</v>
+        <v>4422.359943269813</v>
       </c>
       <c r="AC4" t="n">
-        <v>3823.564160585508</v>
+        <v>4000.296117105137</v>
       </c>
       <c r="AD4" t="n">
-        <v>3089347.341996424</v>
+        <v>3232142.487360518</v>
       </c>
       <c r="AE4" t="n">
-        <v>4226981.325705444</v>
+        <v>4422359.943269813</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.659179896683571e-07</v>
+        <v>1.470036984516523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.22291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3823564.160585508</v>
+        <v>4000296.117105138</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2765.942152960104</v>
+        <v>2908.737208815646</v>
       </c>
       <c r="AB5" t="n">
-        <v>3784.484078435944</v>
+        <v>3979.862573530764</v>
       </c>
       <c r="AC5" t="n">
-        <v>3423.298229546638</v>
+        <v>3600.030075285041</v>
       </c>
       <c r="AD5" t="n">
-        <v>2765942.152960103</v>
+        <v>2908737.208815646</v>
       </c>
       <c r="AE5" t="n">
-        <v>3784484.078435943</v>
+        <v>3979862.573530764</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.004293429663634e-06</v>
+        <v>1.528440820756824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.87291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3423298.229546638</v>
+        <v>3600030.075285041</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2687.002571284844</v>
+        <v>2822.025767873714</v>
       </c>
       <c r="AB6" t="n">
-        <v>3676.475460219291</v>
+        <v>3861.220154595217</v>
       </c>
       <c r="AC6" t="n">
-        <v>3325.59780226154</v>
+        <v>3492.710722297027</v>
       </c>
       <c r="AD6" t="n">
-        <v>2687002.571284844</v>
+        <v>2822025.767873714</v>
       </c>
       <c r="AE6" t="n">
-        <v>3676475.460219291</v>
+        <v>3861220.154595217</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.013928114598619e-06</v>
+        <v>1.543103911557581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.55208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3325597.80226154</v>
+        <v>3492710.722297027</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2704.757728907553</v>
+        <v>2839.780925496423</v>
       </c>
       <c r="AB7" t="n">
-        <v>3700.768850180955</v>
+        <v>3885.51354455688</v>
       </c>
       <c r="AC7" t="n">
-        <v>3347.572665181247</v>
+        <v>3514.685585216735</v>
       </c>
       <c r="AD7" t="n">
-        <v>2704757.728907553</v>
+        <v>2839780.925496423</v>
       </c>
       <c r="AE7" t="n">
-        <v>3700768.850180955</v>
+        <v>3885513.54455688</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.01409141434328e-06</v>
+        <v>1.543352438520306e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.55</v>
       </c>
       <c r="AH7" t="n">
-        <v>3347572.665181248</v>
+        <v>3514685.585216735</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8886.045137218123</v>
+        <v>9130.775838753896</v>
       </c>
       <c r="AB2" t="n">
-        <v>12158.27898138627</v>
+        <v>12493.13032398409</v>
       </c>
       <c r="AC2" t="n">
-        <v>10997.90989965403</v>
+        <v>11300.80350008112</v>
       </c>
       <c r="AD2" t="n">
-        <v>8886045.137218123</v>
+        <v>9130775.838753896</v>
       </c>
       <c r="AE2" t="n">
-        <v>12158278.98138627</v>
+        <v>12493130.32398409</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.619137572717544e-07</v>
+        <v>8.388870573487206e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.29375</v>
       </c>
       <c r="AH2" t="n">
-        <v>10997909.89965403</v>
+        <v>11300803.50008112</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4695.252070899227</v>
+        <v>4866.65737425831</v>
       </c>
       <c r="AB3" t="n">
-        <v>6424.251023306856</v>
+        <v>6658.775321231062</v>
       </c>
       <c r="AC3" t="n">
-        <v>5811.129522135147</v>
+        <v>6023.271150222376</v>
       </c>
       <c r="AD3" t="n">
-        <v>4695252.070899227</v>
+        <v>4866657.37425831</v>
       </c>
       <c r="AE3" t="n">
-        <v>6424251.023306856</v>
+        <v>6658775.321231062</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.049799768414613e-07</v>
+        <v>1.201763215899678e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>5811129.522135147</v>
+        <v>6023271.150222377</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3883.20323107003</v>
+        <v>4038.276092123052</v>
       </c>
       <c r="AB4" t="n">
-        <v>5313.16997558608</v>
+        <v>5525.347505410629</v>
       </c>
       <c r="AC4" t="n">
-        <v>4806.088490196839</v>
+        <v>4998.016094367958</v>
       </c>
       <c r="AD4" t="n">
-        <v>3883203.23107003</v>
+        <v>4038276.092123052</v>
       </c>
       <c r="AE4" t="n">
-        <v>5313169.97558608</v>
+        <v>5525347.505410629</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.908235446843202e-07</v>
+        <v>1.32991999634523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.76875</v>
       </c>
       <c r="AH4" t="n">
-        <v>4806088.490196839</v>
+        <v>4998016.094367958</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3506.239005886545</v>
+        <v>3653.060394440515</v>
       </c>
       <c r="AB5" t="n">
-        <v>4797.390892202113</v>
+        <v>4998.278393324183</v>
       </c>
       <c r="AC5" t="n">
-        <v>4339.534638630567</v>
+        <v>4521.249718592918</v>
       </c>
       <c r="AD5" t="n">
-        <v>3506239.005886545</v>
+        <v>3653060.394440515</v>
       </c>
       <c r="AE5" t="n">
-        <v>4797390.892202113</v>
+        <v>4998278.393324182</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.350031098195645e-07</v>
+        <v>1.395876141592849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.02916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4339534.638630567</v>
+        <v>4521249.718592918</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3251.455601311434</v>
+        <v>3390.196109566944</v>
       </c>
       <c r="AB6" t="n">
-        <v>4448.784997811913</v>
+        <v>4638.615882006351</v>
       </c>
       <c r="AC6" t="n">
-        <v>4024.199201529536</v>
+        <v>4195.91289256577</v>
       </c>
       <c r="AD6" t="n">
-        <v>3251455.601311434</v>
+        <v>3390196.109566944</v>
       </c>
       <c r="AE6" t="n">
-        <v>4448784.997811913</v>
+        <v>4638615.882006351</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.628315191752166e-07</v>
+        <v>1.437421471517506e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>34.01666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4024199.201529536</v>
+        <v>4195912.89256577</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3054.661849096765</v>
+        <v>3193.317016497703</v>
       </c>
       <c r="AB7" t="n">
-        <v>4179.523104104179</v>
+        <v>4369.23722117642</v>
       </c>
       <c r="AC7" t="n">
-        <v>3780.635285045837</v>
+        <v>3952.243353050132</v>
       </c>
       <c r="AD7" t="n">
-        <v>3054661.849096765</v>
+        <v>3193317.016497703</v>
       </c>
       <c r="AE7" t="n">
-        <v>4179523.104104179</v>
+        <v>4369237.221176419</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.810693467755309e-07</v>
+        <v>1.464648919377733e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3780635.285045837</v>
+        <v>3952243.353050132</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2962.891412060244</v>
+        <v>3101.546579461181</v>
       </c>
       <c r="AB8" t="n">
-        <v>4053.958743524859</v>
+        <v>4243.6728605971</v>
       </c>
       <c r="AC8" t="n">
-        <v>3667.054610809525</v>
+        <v>3838.66267881382</v>
       </c>
       <c r="AD8" t="n">
-        <v>2962891.412060244</v>
+        <v>3101546.579461182</v>
       </c>
       <c r="AE8" t="n">
-        <v>4053958.743524859</v>
+        <v>4243672.8605971</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.890877020136002e-07</v>
+        <v>1.476619607661108e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>33.11666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3667054.610809525</v>
+        <v>3838662.67881382</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2970.723167291622</v>
+        <v>3109.37833469256</v>
       </c>
       <c r="AB9" t="n">
-        <v>4064.674496545087</v>
+        <v>4254.388613617329</v>
       </c>
       <c r="AC9" t="n">
-        <v>3676.747667401155</v>
+        <v>3848.355735405451</v>
       </c>
       <c r="AD9" t="n">
-        <v>2970723.167291622</v>
+        <v>3109378.33469256</v>
       </c>
       <c r="AE9" t="n">
-        <v>4064674.496545087</v>
+        <v>4254388.613617329</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.898738152722345e-07</v>
+        <v>1.477793204551635e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>33.0875</v>
       </c>
       <c r="AH9" t="n">
-        <v>3676747.667401155</v>
+        <v>3848355.735405451</v>
       </c>
     </row>
   </sheetData>
